--- a/Database/Cornestean/Europa.xlsx
+++ b/Database/Cornestean/Europa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA9A1E-2B1F-4B4B-A3E9-6EFD600DD9D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE066C-1264-4543-A21D-1438993D7E6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7010" yWindow="3710" windowWidth="26690" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,14 +591,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="178" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="179" max="179" width="14.1796875" customWidth="1"/>
@@ -609,11 +610,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -749,11 +750,11 @@
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B2">
+      <c r="B2" s="9">
+        <v>43846</v>
+      </c>
+      <c r="C2">
         <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>43846</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5"/>
@@ -801,11 +802,11 @@
       <c r="AV2" s="5"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B3">
+      <c r="B3" s="9">
+        <v>43847</v>
+      </c>
+      <c r="C3">
         <v>2</v>
-      </c>
-      <c r="C3" s="9">
-        <v>43847</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5"/>
@@ -853,11 +854,11 @@
       <c r="AV3" s="5"/>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B4">
+      <c r="B4" s="9">
+        <v>43848</v>
+      </c>
+      <c r="C4">
         <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>43848</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
@@ -905,11 +906,11 @@
       <c r="AV4" s="5"/>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B5">
+      <c r="B5" s="9">
+        <v>43849</v>
+      </c>
+      <c r="C5">
         <v>4</v>
-      </c>
-      <c r="C5" s="9">
-        <v>43849</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5"/>
@@ -957,11 +958,11 @@
       <c r="AV5" s="5"/>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B6">
+      <c r="B6" s="9">
+        <v>43850</v>
+      </c>
+      <c r="C6">
         <v>5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>43850</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="5"/>
@@ -1009,11 +1010,11 @@
       <c r="AV6" s="5"/>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B7">
+      <c r="B7" s="9">
+        <v>43851</v>
+      </c>
+      <c r="C7">
         <v>6</v>
-      </c>
-      <c r="C7" s="9">
-        <v>43851</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="5"/>
@@ -1061,11 +1062,11 @@
       <c r="AV7" s="5"/>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B8">
+      <c r="B8" s="9">
+        <v>43852</v>
+      </c>
+      <c r="C8">
         <v>7</v>
-      </c>
-      <c r="C8" s="9">
-        <v>43852</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
@@ -1113,11 +1114,11 @@
       <c r="AV8" s="5"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B9">
+      <c r="B9" s="9">
+        <v>43853</v>
+      </c>
+      <c r="C9">
         <v>8</v>
-      </c>
-      <c r="C9" s="9">
-        <v>43853</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="5"/>
@@ -1165,11 +1166,11 @@
       <c r="AV9" s="5"/>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B10">
+      <c r="B10" s="9">
+        <v>43854</v>
+      </c>
+      <c r="C10">
         <v>9</v>
-      </c>
-      <c r="C10" s="9">
-        <v>43854</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5"/>
@@ -1219,11 +1220,11 @@
       <c r="AV10" s="5"/>
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B11">
+      <c r="B11" s="9">
+        <v>43855</v>
+      </c>
+      <c r="C11">
         <v>10</v>
-      </c>
-      <c r="C11" s="9">
-        <v>43855</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="5"/>
@@ -1273,11 +1274,11 @@
       <c r="AV11" s="5"/>
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B12">
+      <c r="B12" s="9">
+        <v>43856</v>
+      </c>
+      <c r="C12">
         <v>11</v>
-      </c>
-      <c r="C12" s="9">
-        <v>43856</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="5"/>
@@ -1325,11 +1326,11 @@
       <c r="AV12" s="5"/>
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B13">
+      <c r="B13" s="9">
+        <v>43857</v>
+      </c>
+      <c r="C13">
         <v>12</v>
-      </c>
-      <c r="C13" s="9">
-        <v>43857</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
@@ -1379,11 +1380,11 @@
       <c r="AV13" s="5"/>
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B14">
+      <c r="B14" s="9">
+        <v>43858</v>
+      </c>
+      <c r="C14">
         <v>13</v>
-      </c>
-      <c r="C14" s="9">
-        <v>43858</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
@@ -1435,11 +1436,11 @@
       <c r="AV14" s="5"/>
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B15">
+      <c r="B15" s="9">
+        <v>43859</v>
+      </c>
+      <c r="C15">
         <v>14</v>
-      </c>
-      <c r="C15" s="9">
-        <v>43859</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="5"/>
@@ -1491,11 +1492,11 @@
       <c r="AV15" s="5"/>
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
-      <c r="B16">
+      <c r="B16" s="9">
+        <v>43860</v>
+      </c>
+      <c r="C16">
         <v>15</v>
-      </c>
-      <c r="C16" s="9">
-        <v>43860</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="5"/>
@@ -1543,11 +1544,11 @@
       <c r="AV16" s="5"/>
     </row>
     <row r="17" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B17">
+      <c r="B17" s="9">
+        <v>43861</v>
+      </c>
+      <c r="C17">
         <v>16</v>
-      </c>
-      <c r="C17" s="9">
-        <v>43861</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -1605,11 +1606,11 @@
       <c r="AV17" s="5"/>
     </row>
     <row r="18" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B18">
+      <c r="B18" s="9">
+        <v>43862</v>
+      </c>
+      <c r="C18">
         <v>17</v>
-      </c>
-      <c r="C18" s="9">
-        <v>43862</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
@@ -1663,11 +1664,11 @@
       <c r="AV18" s="5"/>
     </row>
     <row r="19" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B19">
+      <c r="B19" s="9">
+        <v>43863</v>
+      </c>
+      <c r="C19">
         <v>18</v>
-      </c>
-      <c r="C19" s="9">
-        <v>43863</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
@@ -1717,11 +1718,11 @@
       <c r="AV19" s="5"/>
     </row>
     <row r="20" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B20">
+      <c r="B20" s="9">
+        <v>43864</v>
+      </c>
+      <c r="C20">
         <v>19</v>
-      </c>
-      <c r="C20" s="9">
-        <v>43864</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="5"/>
@@ -1771,11 +1772,11 @@
       <c r="AV20" s="5"/>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B21">
+      <c r="B21" s="9">
+        <v>43865</v>
+      </c>
+      <c r="C21">
         <v>20</v>
-      </c>
-      <c r="C21" s="9">
-        <v>43865</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
@@ -1825,11 +1826,11 @@
       <c r="AV21" s="5"/>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B22">
+      <c r="B22" s="9">
+        <v>43866</v>
+      </c>
+      <c r="C22">
         <v>21</v>
-      </c>
-      <c r="C22" s="9">
-        <v>43866</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
@@ -1877,11 +1878,11 @@
       <c r="AV22" s="5"/>
     </row>
     <row r="23" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B23">
+      <c r="B23" s="9">
+        <v>43867</v>
+      </c>
+      <c r="C23">
         <v>22</v>
-      </c>
-      <c r="C23" s="9">
-        <v>43867</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="5"/>
@@ -1929,11 +1930,11 @@
       <c r="AV23" s="5"/>
     </row>
     <row r="24" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B24">
+      <c r="B24" s="9">
+        <v>43868</v>
+      </c>
+      <c r="C24">
         <v>23</v>
-      </c>
-      <c r="C24" s="9">
-        <v>43868</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="5">
@@ -1987,11 +1988,11 @@
       <c r="AV24" s="5"/>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B25">
+      <c r="B25" s="9">
+        <v>43869</v>
+      </c>
+      <c r="C25">
         <v>24</v>
-      </c>
-      <c r="C25" s="9">
-        <v>43869</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="5"/>
@@ -2041,11 +2042,11 @@
       <c r="AV25" s="5"/>
     </row>
     <row r="26" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B26">
+      <c r="B26" s="9">
+        <v>43870</v>
+      </c>
+      <c r="C26">
         <v>25</v>
-      </c>
-      <c r="C26" s="9">
-        <v>43870</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="5"/>
@@ -2097,11 +2098,11 @@
       <c r="AV26" s="5"/>
     </row>
     <row r="27" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B27">
+      <c r="B27" s="9">
+        <v>43871</v>
+      </c>
+      <c r="C27">
         <v>26</v>
-      </c>
-      <c r="C27" s="9">
-        <v>43871</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="5">
@@ -2151,11 +2152,11 @@
       <c r="AV27" s="5"/>
     </row>
     <row r="28" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B28">
+      <c r="B28" s="9">
+        <v>43872</v>
+      </c>
+      <c r="C28">
         <v>27</v>
-      </c>
-      <c r="C28" s="9">
-        <v>43872</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="5"/>
@@ -2205,11 +2206,11 @@
       <c r="AV28" s="5"/>
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B29">
+      <c r="B29" s="9">
+        <v>43873</v>
+      </c>
+      <c r="C29">
         <v>28</v>
-      </c>
-      <c r="C29" s="9">
-        <v>43873</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
@@ -2265,11 +2266,11 @@
       <c r="AV29" s="5"/>
     </row>
     <row r="30" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B30">
+      <c r="B30" s="9">
+        <v>43874</v>
+      </c>
+      <c r="C30">
         <v>29</v>
-      </c>
-      <c r="C30" s="9">
-        <v>43874</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="5"/>
@@ -2319,11 +2320,11 @@
       <c r="AV30" s="5"/>
     </row>
     <row r="31" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B31">
+      <c r="B31" s="9">
+        <v>43875</v>
+      </c>
+      <c r="C31">
         <v>30</v>
-      </c>
-      <c r="C31" s="9">
-        <v>43875</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="5"/>
@@ -2371,11 +2372,11 @@
       <c r="AV31" s="5"/>
     </row>
     <row r="32" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B32">
+      <c r="B32" s="9">
+        <v>43876</v>
+      </c>
+      <c r="C32">
         <v>31</v>
-      </c>
-      <c r="C32" s="9">
-        <v>43876</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="5"/>
@@ -2427,11 +2428,11 @@
       <c r="AV32" s="5"/>
     </row>
     <row r="33" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B33">
+      <c r="B33" s="9">
+        <v>43877</v>
+      </c>
+      <c r="C33">
         <v>32</v>
-      </c>
-      <c r="C33" s="9">
-        <v>43877</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="5">
@@ -2481,11 +2482,11 @@
       <c r="AV33" s="5"/>
     </row>
     <row r="34" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B34">
+      <c r="B34" s="9">
+        <v>43878</v>
+      </c>
+      <c r="C34">
         <v>33</v>
-      </c>
-      <c r="C34" s="9">
-        <v>43878</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="5"/>
@@ -2535,11 +2536,11 @@
       <c r="AV34" s="5"/>
     </row>
     <row r="35" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B35">
+      <c r="B35" s="9">
+        <v>43879</v>
+      </c>
+      <c r="C35">
         <v>34</v>
-      </c>
-      <c r="C35" s="9">
-        <v>43879</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="5"/>
@@ -2589,11 +2590,11 @@
       <c r="AV35" s="5"/>
     </row>
     <row r="36" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B36">
+      <c r="B36" s="9">
+        <v>43880</v>
+      </c>
+      <c r="C36">
         <v>35</v>
-      </c>
-      <c r="C36" s="9">
-        <v>43880</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
@@ -2641,11 +2642,11 @@
       <c r="AV36" s="5"/>
     </row>
     <row r="37" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B37">
+      <c r="B37" s="9">
+        <v>43881</v>
+      </c>
+      <c r="C37">
         <v>36</v>
-      </c>
-      <c r="C37" s="9">
-        <v>43881</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="5"/>
@@ -2693,11 +2694,11 @@
       <c r="AV37" s="5"/>
     </row>
     <row r="38" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B38">
+      <c r="B38" s="9">
+        <v>43882</v>
+      </c>
+      <c r="C38">
         <v>37</v>
-      </c>
-      <c r="C38" s="9">
-        <v>43882</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="5"/>
@@ -2749,11 +2750,11 @@
       <c r="AV38" s="5"/>
     </row>
     <row r="39" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B39">
+      <c r="B39" s="9">
+        <v>43883</v>
+      </c>
+      <c r="C39">
         <v>38</v>
-      </c>
-      <c r="C39" s="9">
-        <v>43883</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="5"/>
@@ -2803,11 +2804,11 @@
       <c r="AV39" s="5"/>
     </row>
     <row r="40" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B40">
+      <c r="B40" s="9">
+        <v>43884</v>
+      </c>
+      <c r="C40">
         <v>39</v>
-      </c>
-      <c r="C40" s="9">
-        <v>43884</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="5"/>
@@ -2857,11 +2858,11 @@
       <c r="AV40" s="5"/>
     </row>
     <row r="41" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B41">
+      <c r="B41" s="9">
+        <v>43885</v>
+      </c>
+      <c r="C41">
         <v>40</v>
-      </c>
-      <c r="C41" s="9">
-        <v>43885</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="5">
@@ -2913,11 +2914,11 @@
       <c r="AV41" s="5"/>
     </row>
     <row r="42" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B42">
+      <c r="B42" s="9">
+        <v>43886</v>
+      </c>
+      <c r="C42">
         <v>41</v>
-      </c>
-      <c r="C42" s="9">
-        <v>43886</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="5"/>
@@ -2979,11 +2980,11 @@
       <c r="AV42" s="5"/>
     </row>
     <row r="43" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B43">
+      <c r="B43" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C43">
         <v>42</v>
-      </c>
-      <c r="C43" s="9">
-        <v>43887</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="5"/>
@@ -3051,11 +3052,11 @@
       <c r="AV43" s="5"/>
     </row>
     <row r="44" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B44">
+      <c r="B44" s="9">
+        <v>43888</v>
+      </c>
+      <c r="C44">
         <v>43</v>
-      </c>
-      <c r="C44" s="9">
-        <v>43888</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="5">
@@ -3129,11 +3130,11 @@
       <c r="AV44" s="5"/>
     </row>
     <row r="45" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B45">
+      <c r="B45" s="9">
+        <v>43889</v>
+      </c>
+      <c r="C45">
         <v>44</v>
-      </c>
-      <c r="C45" s="9">
-        <v>43889</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="5">
@@ -3205,11 +3206,11 @@
       <c r="AV45" s="5"/>
     </row>
     <row r="46" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B46">
+      <c r="B46" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C46">
         <v>45</v>
-      </c>
-      <c r="C46" s="9">
-        <v>43890</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="5">
@@ -3289,11 +3290,11 @@
       <c r="AV46" s="5"/>
     </row>
     <row r="47" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B47">
+      <c r="B47" s="9">
+        <v>43891</v>
+      </c>
+      <c r="C47">
         <v>46</v>
-      </c>
-      <c r="C47" s="9">
-        <v>43891</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="5">
@@ -3375,11 +3376,11 @@
       <c r="AV47" s="5"/>
     </row>
     <row r="48" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B48">
+      <c r="B48" s="9">
+        <v>43892</v>
+      </c>
+      <c r="C48">
         <v>47</v>
-      </c>
-      <c r="C48" s="9">
-        <v>43892</v>
       </c>
       <c r="E48" s="6">
         <v>3</v>
@@ -3461,11 +3462,11 @@
       <c r="AV48" s="5"/>
     </row>
     <row r="49" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B49">
+      <c r="B49" s="9">
+        <v>43893</v>
+      </c>
+      <c r="C49">
         <v>48</v>
-      </c>
-      <c r="C49" s="9">
-        <v>43893</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="5">
@@ -3551,11 +3552,11 @@
       <c r="AV49" s="5"/>
     </row>
     <row r="50" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B50">
+      <c r="B50" s="9">
+        <v>43894</v>
+      </c>
+      <c r="C50">
         <v>49</v>
-      </c>
-      <c r="C50" s="9">
-        <v>43894</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="5">
@@ -3649,11 +3650,11 @@
       <c r="AV50" s="5"/>
     </row>
     <row r="51" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B51">
+      <c r="B51" s="9">
+        <v>43895</v>
+      </c>
+      <c r="C51">
         <v>50</v>
-      </c>
-      <c r="C51" s="9">
-        <v>43895</v>
       </c>
       <c r="E51" s="6">
         <v>4</v>
@@ -3747,11 +3748,11 @@
       </c>
     </row>
     <row r="52" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B52">
+      <c r="B52" s="9">
+        <v>43896</v>
+      </c>
+      <c r="C52">
         <v>51</v>
-      </c>
-      <c r="C52" s="9">
-        <v>43896</v>
       </c>
       <c r="E52" s="6">
         <v>13</v>
@@ -3853,11 +3854,11 @@
       <c r="AV52" s="5"/>
     </row>
     <row r="53" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B53">
+      <c r="B53" s="9">
+        <v>43897</v>
+      </c>
+      <c r="C53">
         <v>52</v>
-      </c>
-      <c r="C53" s="9">
-        <v>43897</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="5">
@@ -3947,11 +3948,11 @@
       <c r="AV53" s="5"/>
     </row>
     <row r="54" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B54">
+      <c r="B54" s="9">
+        <v>43898</v>
+      </c>
+      <c r="C54">
         <v>53</v>
-      </c>
-      <c r="C54" s="9">
-        <v>43898</v>
       </c>
       <c r="E54" s="6">
         <v>17</v>
@@ -4055,11 +4056,11 @@
       <c r="AV54" s="5"/>
     </row>
     <row r="55" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B55">
+      <c r="B55" s="9">
+        <v>43899</v>
+      </c>
+      <c r="C55">
         <v>54</v>
-      </c>
-      <c r="C55" s="9">
-        <v>43899</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="5">
@@ -4149,11 +4150,11 @@
       <c r="AV55" s="5"/>
     </row>
     <row r="56" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B56">
+      <c r="B56" s="9">
+        <v>43900</v>
+      </c>
+      <c r="C56">
         <v>55</v>
-      </c>
-      <c r="C56" s="9">
-        <v>43900</v>
       </c>
       <c r="E56" s="6">
         <v>10</v>
@@ -4271,11 +4272,11 @@
       <c r="AV56" s="5"/>
     </row>
     <row r="57" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B57">
+      <c r="B57" s="9">
+        <v>43901</v>
+      </c>
+      <c r="C57">
         <v>56</v>
-      </c>
-      <c r="C57" s="9">
-        <v>43901</v>
       </c>
       <c r="E57" s="6">
         <v>20</v>
@@ -4397,11 +4398,11 @@
       <c r="AV57" s="5"/>
     </row>
     <row r="58" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B58">
+      <c r="B58" s="9">
+        <v>43902</v>
+      </c>
+      <c r="C58">
         <v>57</v>
-      </c>
-      <c r="C58" s="9">
-        <v>43902</v>
       </c>
       <c r="E58" s="6">
         <v>28</v>
@@ -4493,11 +4494,11 @@
       <c r="AV58" s="5"/>
     </row>
     <row r="59" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B59">
+      <c r="B59" s="9">
+        <v>43903</v>
+      </c>
+      <c r="C59">
         <v>58</v>
-      </c>
-      <c r="C59" s="9">
-        <v>43903</v>
       </c>
       <c r="E59" s="6">
         <v>45</v>
@@ -4627,11 +4628,11 @@
       <c r="AV59" s="5"/>
     </row>
     <row r="60" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B60">
+      <c r="B60" s="9">
+        <v>43904</v>
+      </c>
+      <c r="C60">
         <v>59</v>
-      </c>
-      <c r="C60" s="9">
-        <v>43904</v>
       </c>
       <c r="E60" s="6">
         <v>59</v>
@@ -4757,11 +4758,11 @@
       </c>
     </row>
     <row r="61" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B61">
+      <c r="B61" s="9">
+        <v>43905</v>
+      </c>
+      <c r="C61">
         <v>60</v>
-      </c>
-      <c r="C61" s="9">
-        <v>43905</v>
       </c>
       <c r="E61" s="6">
         <v>63</v>
@@ -4881,11 +4882,11 @@
       <c r="AV61" s="5"/>
     </row>
     <row r="62" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B62">
+      <c r="B62" s="9">
+        <v>43906</v>
+      </c>
+      <c r="C62">
         <v>61</v>
-      </c>
-      <c r="C62" s="9">
-        <v>43906</v>
       </c>
       <c r="E62" s="6">
         <v>90</v>
@@ -5011,11 +5012,11 @@
       <c r="AV62" s="5"/>
     </row>
     <row r="63" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B63">
+      <c r="B63" s="9">
+        <v>43907</v>
+      </c>
+      <c r="C63">
         <v>62</v>
-      </c>
-      <c r="C63" s="9">
-        <v>43907</v>
       </c>
       <c r="E63" s="6">
         <v>114</v>
@@ -5145,11 +5146,11 @@
       </c>
     </row>
     <row r="64" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B64">
+      <c r="B64" s="9">
+        <v>43908</v>
+      </c>
+      <c r="C64">
         <v>63</v>
-      </c>
-      <c r="C64" s="9">
-        <v>43908</v>
       </c>
       <c r="E64" s="6">
         <v>147</v>
@@ -5273,11 +5274,11 @@
       </c>
     </row>
     <row r="65" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B65">
+      <c r="B65" s="9">
+        <v>43909</v>
+      </c>
+      <c r="C65">
         <v>64</v>
-      </c>
-      <c r="C65" s="9">
-        <v>43909</v>
       </c>
       <c r="E65" s="6">
         <v>199</v>
@@ -5405,11 +5406,11 @@
       <c r="AV65" s="5"/>
     </row>
     <row r="66" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B66">
+      <c r="B66" s="9">
+        <v>43910</v>
+      </c>
+      <c r="C66">
         <v>65</v>
-      </c>
-      <c r="C66" s="9">
-        <v>43910</v>
       </c>
       <c r="E66" s="6">
         <v>253</v>
@@ -5541,11 +5542,11 @@
       <c r="AV66" s="5"/>
     </row>
     <row r="67" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B67">
+      <c r="B67" s="9">
+        <v>43911</v>
+      </c>
+      <c r="C67">
         <v>66</v>
-      </c>
-      <c r="C67" s="9">
-        <v>43911</v>
       </c>
       <c r="E67" s="6">
         <v>306</v>
@@ -5677,11 +5678,11 @@
       </c>
     </row>
     <row r="68" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B68">
+      <c r="B68" s="9">
+        <v>43912</v>
+      </c>
+      <c r="C68">
         <v>67</v>
-      </c>
-      <c r="C68" s="9">
-        <v>43912</v>
       </c>
       <c r="E68" s="6">
         <v>367</v>
@@ -5813,11 +5814,11 @@
       <c r="AV68" s="5"/>
     </row>
     <row r="69" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B69">
+      <c r="B69" s="9">
+        <v>43913</v>
+      </c>
+      <c r="C69">
         <v>68</v>
-      </c>
-      <c r="C69" s="9">
-        <v>43913</v>
       </c>
       <c r="E69" s="6">
         <v>438</v>
@@ -5949,11 +5950,11 @@
       </c>
     </row>
     <row r="70" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B70">
+      <c r="B70" s="9">
+        <v>43914</v>
+      </c>
+      <c r="C70">
         <v>69</v>
-      </c>
-      <c r="C70" s="9">
-        <v>43914</v>
       </c>
       <c r="E70" s="6">
         <v>495</v>
@@ -6085,11 +6086,11 @@
       <c r="AV70" s="5"/>
     </row>
     <row r="71" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B71">
+      <c r="B71" s="9">
+        <v>43915</v>
+      </c>
+      <c r="C71">
         <v>70</v>
-      </c>
-      <c r="C71" s="9">
-        <v>43915</v>
       </c>
       <c r="E71" s="6">
         <v>658</v>
@@ -6223,11 +6224,11 @@
       <c r="AV71" s="5"/>
     </row>
     <row r="72" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B72">
+      <c r="B72" s="9">
+        <v>43916</v>
+      </c>
+      <c r="C72">
         <v>71</v>
-      </c>
-      <c r="C72" s="9">
-        <v>43916</v>
       </c>
       <c r="E72" s="6">
         <v>840</v>
@@ -6359,11 +6360,11 @@
       </c>
     </row>
     <row r="73" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B73">
+      <c r="B73" s="9">
+        <v>43917</v>
+      </c>
+      <c r="C73">
         <v>72</v>
-      </c>
-      <c r="C73" s="9">
-        <v>43917</v>
       </c>
       <c r="E73" s="6">
         <v>1036</v>
@@ -6497,11 +6498,11 @@
       <c r="AV73" s="5"/>
     </row>
     <row r="74" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B74">
+      <c r="B74" s="9">
+        <v>43918</v>
+      </c>
+      <c r="C74">
         <v>73</v>
-      </c>
-      <c r="C74" s="9">
-        <v>43918</v>
       </c>
       <c r="E74" s="6">
         <v>1264</v>
@@ -6631,11 +6632,11 @@
       <c r="AV74" s="5"/>
     </row>
     <row r="75" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B75">
+      <c r="B75" s="9">
+        <v>43919</v>
+      </c>
+      <c r="C75">
         <v>74</v>
-      </c>
-      <c r="C75" s="9">
-        <v>43919</v>
       </c>
       <c r="E75" s="6">
         <v>1534</v>
@@ -6765,11 +6766,11 @@
       <c r="AV75" s="5"/>
     </row>
     <row r="76" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B76">
+      <c r="B76" s="9">
+        <v>43920</v>
+      </c>
+      <c r="C76">
         <v>75</v>
-      </c>
-      <c r="C76" s="9">
-        <v>43920</v>
       </c>
       <c r="E76" s="6">
         <v>1836</v>
@@ -6905,11 +6906,11 @@
       </c>
     </row>
     <row r="77" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B77">
+      <c r="B77" s="9">
+        <v>43921</v>
+      </c>
+      <c r="C77">
         <v>76</v>
-      </c>
-      <c r="C77" s="9">
-        <v>43921</v>
       </c>
       <c r="E77" s="6">
         <v>2337</v>
@@ -7045,11 +7046,11 @@
       </c>
     </row>
     <row r="78" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B78">
+      <c r="B78" s="9">
+        <v>43922</v>
+      </c>
+      <c r="C78">
         <v>77</v>
-      </c>
-      <c r="C78" s="9">
-        <v>43922</v>
       </c>
       <c r="E78" s="6">
         <v>2777</v>
@@ -7181,11 +7182,11 @@
       <c r="AV78" s="5"/>
     </row>
     <row r="79" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B79">
+      <c r="B79" s="9">
+        <v>43923</v>
+      </c>
+      <c r="C79">
         <v>78</v>
-      </c>
-      <c r="C79" s="9">
-        <v>43923</v>
       </c>
       <c r="E79" s="6">
         <v>3548</v>
@@ -7321,11 +7322,11 @@
       </c>
     </row>
     <row r="80" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B80">
+      <c r="B80" s="9">
+        <v>43924</v>
+      </c>
+      <c r="C80">
         <v>79</v>
-      </c>
-      <c r="C80" s="9">
-        <v>43924</v>
       </c>
       <c r="E80" s="6">
         <v>4149</v>
@@ -7457,11 +7458,11 @@
       <c r="AV80" s="5"/>
     </row>
     <row r="81" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B81">
+      <c r="B81" s="9">
+        <v>43925</v>
+      </c>
+      <c r="C81">
         <v>80</v>
-      </c>
-      <c r="C81" s="9">
-        <v>43925</v>
       </c>
       <c r="E81" s="6">
         <v>4731</v>
@@ -7597,11 +7598,11 @@
       </c>
     </row>
     <row r="82" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B82">
+      <c r="B82" s="9">
+        <v>43926</v>
+      </c>
+      <c r="C82">
         <v>81</v>
-      </c>
-      <c r="C82" s="9">
-        <v>43926</v>
       </c>
       <c r="E82" s="6">
         <v>5389</v>
@@ -7735,11 +7736,11 @@
       <c r="AV82" s="5"/>
     </row>
     <row r="83" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B83">
+      <c r="B83" s="9">
+        <v>43927</v>
+      </c>
+      <c r="C83">
         <v>82</v>
-      </c>
-      <c r="C83" s="9">
-        <v>43927</v>
       </c>
       <c r="E83" s="6">
         <v>6343</v>
@@ -7873,11 +7874,11 @@
       </c>
     </row>
     <row r="84" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B84">
+      <c r="B84" s="9">
+        <v>43928</v>
+      </c>
+      <c r="C84">
         <v>83</v>
-      </c>
-      <c r="C84" s="9">
-        <v>43928</v>
       </c>
       <c r="E84" s="6">
         <v>7497</v>
@@ -8013,11 +8014,11 @@
       </c>
     </row>
     <row r="85" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B85">
+      <c r="B85" s="9">
+        <v>43929</v>
+      </c>
+      <c r="C85">
         <v>84</v>
-      </c>
-      <c r="C85" s="9">
-        <v>43929</v>
       </c>
       <c r="E85" s="6">
         <v>8672</v>
@@ -8149,11 +8150,11 @@
       <c r="AV85" s="5"/>
     </row>
     <row r="86" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B86">
+      <c r="B86" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C86">
         <v>85</v>
-      </c>
-      <c r="C86" s="9">
-        <v>43930</v>
       </c>
       <c r="E86" s="6">
         <v>10131</v>
@@ -8287,11 +8288,11 @@
       <c r="AV86" s="5"/>
     </row>
     <row r="87" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B87">
+      <c r="B87" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C87">
         <v>86</v>
-      </c>
-      <c r="C87" s="9">
-        <v>43931</v>
       </c>
       <c r="E87" s="6">
         <v>11917</v>
@@ -8427,11 +8428,11 @@
       </c>
     </row>
     <row r="88" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B88">
+      <c r="B88" s="9">
+        <v>43932</v>
+      </c>
+      <c r="C88">
         <v>87</v>
-      </c>
-      <c r="C88" s="9">
-        <v>43932</v>
       </c>
       <c r="E88" s="6">
         <v>13584</v>
@@ -8563,11 +8564,11 @@
       <c r="AV88" s="5"/>
     </row>
     <row r="89" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B89">
+      <c r="B89" s="9">
+        <v>43933</v>
+      </c>
+      <c r="C89">
         <v>88</v>
-      </c>
-      <c r="C89" s="9">
-        <v>43933</v>
       </c>
       <c r="E89" s="6">
         <v>15770</v>
@@ -8699,11 +8700,11 @@
       <c r="AV89" s="5"/>
     </row>
     <row r="90" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B90">
+      <c r="B90" s="9">
+        <v>43934</v>
+      </c>
+      <c r="C90">
         <v>89</v>
-      </c>
-      <c r="C90" s="9">
-        <v>43934</v>
       </c>
       <c r="E90" s="6">
         <v>18328</v>
@@ -8833,11 +8834,11 @@
       <c r="AV90" s="5"/>
     </row>
     <row r="91" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B91">
+      <c r="B91" s="9">
+        <v>43935</v>
+      </c>
+      <c r="C91">
         <v>90</v>
-      </c>
-      <c r="C91" s="9">
-        <v>43935</v>
       </c>
       <c r="E91" s="6">
         <v>21102</v>
@@ -8969,11 +8970,11 @@
       <c r="AV91" s="5"/>
     </row>
     <row r="92" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B92">
+      <c r="B92" s="9">
+        <v>43936</v>
+      </c>
+      <c r="C92">
         <v>91</v>
-      </c>
-      <c r="C92" s="9">
-        <v>43936</v>
       </c>
       <c r="E92" s="6">
         <v>24490</v>
@@ -9107,11 +9108,11 @@
       <c r="AV92" s="5"/>
     </row>
     <row r="93" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B93">
+      <c r="B93" s="9">
+        <v>43937</v>
+      </c>
+      <c r="C93">
         <v>92</v>
-      </c>
-      <c r="C93" s="9">
-        <v>43937</v>
       </c>
       <c r="E93" s="6">
         <v>27938</v>
@@ -9241,11 +9242,11 @@
       <c r="AV93" s="5"/>
     </row>
     <row r="94" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B94">
+      <c r="B94" s="9">
+        <v>43938</v>
+      </c>
+      <c r="C94">
         <v>93</v>
-      </c>
-      <c r="C94" s="9">
-        <v>43938</v>
       </c>
       <c r="E94" s="6">
         <v>32008</v>
@@ -9379,11 +9380,11 @@
       <c r="AV94" s="5"/>
     </row>
     <row r="95" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B95">
+      <c r="B95" s="9">
+        <v>43939</v>
+      </c>
+      <c r="C95">
         <v>94</v>
-      </c>
-      <c r="C95" s="9">
-        <v>43939</v>
       </c>
       <c r="E95" s="6">
         <v>36793</v>
@@ -9517,11 +9518,11 @@
       <c r="AV95" s="5"/>
     </row>
     <row r="96" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B96">
+      <c r="B96" s="9">
+        <v>43940</v>
+      </c>
+      <c r="C96">
         <v>95</v>
-      </c>
-      <c r="C96" s="9">
-        <v>43940</v>
       </c>
       <c r="E96" s="6">
         <v>42853</v>
@@ -9655,11 +9656,11 @@
       </c>
     </row>
     <row r="97" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B97">
+      <c r="B97" s="9">
+        <v>43941</v>
+      </c>
+      <c r="C97">
         <v>96</v>
-      </c>
-      <c r="C97" s="9">
-        <v>43941</v>
       </c>
       <c r="E97" s="6">
         <v>47121</v>
@@ -9793,11 +9794,11 @@
       <c r="AV97" s="5"/>
     </row>
     <row r="98" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B98">
+      <c r="B98" s="9">
+        <v>43942</v>
+      </c>
+      <c r="C98">
         <v>97</v>
-      </c>
-      <c r="C98" s="9">
-        <v>43942</v>
       </c>
       <c r="E98" s="6">
         <v>52763</v>
@@ -9931,11 +9932,11 @@
       <c r="AV98" s="5"/>
     </row>
     <row r="99" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B99">
+      <c r="B99" s="9">
+        <v>43943</v>
+      </c>
+      <c r="C99">
         <v>98</v>
-      </c>
-      <c r="C99" s="9">
-        <v>43943</v>
       </c>
       <c r="E99" s="6">
         <v>57999</v>
@@ -10067,11 +10068,11 @@
       <c r="AV99" s="5"/>
     </row>
     <row r="100" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B100">
+      <c r="B100" s="9">
+        <v>43944</v>
+      </c>
+      <c r="C100">
         <v>99</v>
-      </c>
-      <c r="C100" s="9">
-        <v>43944</v>
       </c>
       <c r="E100" s="6">
         <v>62773</v>
@@ -10205,11 +10206,11 @@
       <c r="AV100" s="5"/>
     </row>
     <row r="101" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B101">
+      <c r="B101" s="9">
+        <v>43945</v>
+      </c>
+      <c r="C101">
         <v>100</v>
-      </c>
-      <c r="C101" s="9">
-        <v>43945</v>
       </c>
       <c r="E101" s="6">
         <v>68622</v>
@@ -10343,11 +10344,11 @@
       <c r="AV101" s="5"/>
     </row>
     <row r="102" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B102">
+      <c r="B102" s="9">
+        <v>43946</v>
+      </c>
+      <c r="C102">
         <v>101</v>
-      </c>
-      <c r="C102" s="9">
-        <v>43946</v>
       </c>
       <c r="E102" s="6">
         <v>74588</v>
@@ -10477,11 +10478,11 @@
       <c r="AV102" s="5"/>
     </row>
     <row r="103" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B103">
+      <c r="B103" s="9">
+        <v>43947</v>
+      </c>
+      <c r="C103">
         <v>102</v>
-      </c>
-      <c r="C103" s="9">
-        <v>43947</v>
       </c>
       <c r="E103" s="6">
         <v>80949</v>
@@ -10611,11 +10612,11 @@
       <c r="AV103" s="5"/>
     </row>
     <row r="104" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B104">
+      <c r="B104" s="9">
+        <v>43948</v>
+      </c>
+      <c r="C104">
         <v>103</v>
-      </c>
-      <c r="C104" s="9">
-        <v>43948</v>
       </c>
       <c r="E104" s="6">
         <v>87147</v>
@@ -10747,11 +10748,11 @@
       <c r="AV104" s="5"/>
     </row>
     <row r="105" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B105">
+      <c r="B105" s="9">
+        <v>43949</v>
+      </c>
+      <c r="C105">
         <v>104</v>
-      </c>
-      <c r="C105" s="9">
-        <v>43949</v>
       </c>
       <c r="E105" s="6">
         <v>93558</v>
@@ -10885,11 +10886,11 @@
       <c r="AV105" s="5"/>
     </row>
     <row r="106" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B106">
+      <c r="B106" s="9">
+        <v>43950</v>
+      </c>
+      <c r="C106">
         <v>105</v>
-      </c>
-      <c r="C106" s="9">
-        <v>43950</v>
       </c>
       <c r="E106" s="6">
         <v>99399</v>
@@ -11023,11 +11024,11 @@
       <c r="AV106" s="5"/>
     </row>
     <row r="107" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B107">
+      <c r="B107" s="9">
+        <v>43951</v>
+      </c>
+      <c r="C107">
         <v>106</v>
-      </c>
-      <c r="C107" s="9">
-        <v>43951</v>
       </c>
       <c r="E107" s="6">
         <v>106498</v>
@@ -11161,11 +11162,11 @@
       <c r="AV107" s="5"/>
     </row>
     <row r="108" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B108">
+      <c r="B108" s="9">
+        <v>43952</v>
+      </c>
+      <c r="C108">
         <v>107</v>
-      </c>
-      <c r="C108" s="9">
-        <v>43952</v>
       </c>
       <c r="E108" s="6">
         <v>114431</v>
@@ -11295,11 +11296,11 @@
       <c r="AV108" s="5"/>
     </row>
     <row r="109" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B109">
+      <c r="B109" s="9">
+        <v>43953</v>
+      </c>
+      <c r="C109">
         <v>108</v>
-      </c>
-      <c r="C109" s="9">
-        <v>43953</v>
       </c>
       <c r="E109" s="6">
         <v>124054</v>
@@ -11433,11 +11434,11 @@
       <c r="AV109" s="5"/>
     </row>
     <row r="110" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B110">
+      <c r="B110" s="9">
+        <v>43954</v>
+      </c>
+      <c r="C110">
         <v>109</v>
-      </c>
-      <c r="C110" s="9">
-        <v>43954</v>
       </c>
       <c r="E110" s="6">
         <v>134687</v>
@@ -11569,11 +11570,11 @@
       <c r="AV110" s="5"/>
     </row>
     <row r="111" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B111">
+      <c r="B111" s="9">
+        <v>43955</v>
+      </c>
+      <c r="C111">
         <v>110</v>
-      </c>
-      <c r="C111" s="9">
-        <v>43955</v>
       </c>
       <c r="E111" s="6">
         <v>145268</v>
@@ -11703,11 +11704,11 @@
       <c r="AV111" s="5"/>
     </row>
     <row r="112" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B112">
+      <c r="B112" s="9">
+        <v>43956</v>
+      </c>
+      <c r="C112">
         <v>111</v>
-      </c>
-      <c r="C112" s="9">
-        <v>43956</v>
       </c>
       <c r="E112" s="6">
         <v>155370</v>
@@ -11841,11 +11842,11 @@
       <c r="AV112" s="5"/>
     </row>
     <row r="113" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B113">
+      <c r="B113" s="9">
+        <v>43957</v>
+      </c>
+      <c r="C113">
         <v>112</v>
-      </c>
-      <c r="C113" s="9">
-        <v>43957</v>
       </c>
       <c r="E113" s="6">
         <v>165929</v>
@@ -11979,11 +11980,11 @@
       <c r="AV113" s="5"/>
     </row>
     <row r="114" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B114">
+      <c r="B114" s="9">
+        <v>43958</v>
+      </c>
+      <c r="C114">
         <v>113</v>
-      </c>
-      <c r="C114" s="9">
-        <v>43958</v>
       </c>
       <c r="E114" s="6">
         <v>177160</v>
@@ -12115,11 +12116,11 @@
       <c r="AV114" s="5"/>
     </row>
     <row r="115" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B115">
+      <c r="B115" s="9">
+        <v>43959</v>
+      </c>
+      <c r="C115">
         <v>114</v>
-      </c>
-      <c r="C115" s="9">
-        <v>43959</v>
       </c>
       <c r="E115" s="6">
         <v>187859</v>
@@ -12251,11 +12252,11 @@
       <c r="AV115" s="5"/>
     </row>
     <row r="116" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B116">
+      <c r="B116" s="9">
+        <v>43960</v>
+      </c>
+      <c r="C116">
         <v>115</v>
-      </c>
-      <c r="C116" s="9">
-        <v>43960</v>
       </c>
       <c r="E116" s="6">
         <v>198676</v>
@@ -12389,11 +12390,11 @@
       <c r="AV116" s="5"/>
     </row>
     <row r="117" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B117">
+      <c r="B117" s="9">
+        <v>43961</v>
+      </c>
+      <c r="C117">
         <v>116</v>
-      </c>
-      <c r="C117" s="9">
-        <v>43961</v>
       </c>
       <c r="E117" s="6">
         <v>209688</v>
@@ -12521,11 +12522,11 @@
       <c r="AV117" s="5"/>
     </row>
     <row r="118" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B118">
+      <c r="B118" s="9">
+        <v>43962</v>
+      </c>
+      <c r="C118">
         <v>117</v>
-      </c>
-      <c r="C118" s="9">
-        <v>43962</v>
       </c>
       <c r="E118" s="6">
         <v>221344</v>
@@ -12655,11 +12656,11 @@
       <c r="AV118" s="5"/>
     </row>
     <row r="119" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B119">
+      <c r="B119" s="9">
+        <v>43963</v>
+      </c>
+      <c r="C119">
         <v>118</v>
-      </c>
-      <c r="C119" s="9">
-        <v>43963</v>
       </c>
       <c r="E119" s="6">
         <v>232243</v>
@@ -12791,11 +12792,11 @@
       <c r="AV119" s="5"/>
     </row>
     <row r="120" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B120">
+      <c r="B120" s="9">
+        <v>43964</v>
+      </c>
+      <c r="C120">
         <v>119</v>
-      </c>
-      <c r="C120" s="9">
-        <v>43964</v>
       </c>
       <c r="E120" s="6">
         <v>242271</v>
@@ -12929,11 +12930,11 @@
       <c r="AV120" s="5"/>
     </row>
     <row r="121" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B121">
+      <c r="B121" s="9">
+        <v>43965</v>
+      </c>
+      <c r="C121">
         <v>120</v>
-      </c>
-      <c r="C121" s="9">
-        <v>43965</v>
       </c>
       <c r="E121" s="6">
         <v>252245</v>
@@ -13063,11 +13064,11 @@
       <c r="AV121" s="5"/>
     </row>
     <row r="122" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B122">
+      <c r="B122" s="9">
+        <v>43966</v>
+      </c>
+      <c r="C122">
         <v>121</v>
-      </c>
-      <c r="C122" s="9">
-        <v>43966</v>
       </c>
       <c r="E122" s="6">
         <v>262843</v>
@@ -13199,11 +13200,11 @@
       <c r="AV122" s="5"/>
     </row>
     <row r="123" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B123">
+      <c r="B123" s="9">
+        <v>43967</v>
+      </c>
+      <c r="C123">
         <v>122</v>
-      </c>
-      <c r="C123" s="9">
-        <v>43967</v>
       </c>
       <c r="E123" s="6">
         <v>272043</v>
@@ -13333,11 +13334,11 @@
       <c r="AV123" s="5"/>
     </row>
     <row r="124" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B124">
+      <c r="B124" s="9">
+        <v>43968</v>
+      </c>
+      <c r="C124">
         <v>123</v>
-      </c>
-      <c r="C124" s="9">
-        <v>43968</v>
       </c>
       <c r="E124" s="6">
         <v>281752</v>
@@ -13463,11 +13464,11 @@
       <c r="AV124" s="5"/>
     </row>
     <row r="125" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B125">
+      <c r="B125" s="9">
+        <v>43969</v>
+      </c>
+      <c r="C125">
         <v>124</v>
-      </c>
-      <c r="C125" s="9">
-        <v>43969</v>
       </c>
       <c r="E125" s="6">
         <v>290678</v>
@@ -13597,11 +13598,11 @@
       <c r="AV125" s="5"/>
     </row>
     <row r="126" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B126">
+      <c r="B126" s="9">
+        <v>43970</v>
+      </c>
+      <c r="C126">
         <v>125</v>
-      </c>
-      <c r="C126" s="9">
-        <v>43970</v>
       </c>
       <c r="E126" s="6">
         <v>299941</v>
@@ -13733,11 +13734,11 @@
       <c r="AV126" s="5"/>
     </row>
     <row r="127" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B127">
+      <c r="B127" s="9">
+        <v>43971</v>
+      </c>
+      <c r="C127">
         <v>126</v>
-      </c>
-      <c r="C127" s="9">
-        <v>43971</v>
       </c>
       <c r="E127" s="6">
         <v>308705</v>
@@ -13869,11 +13870,11 @@
       <c r="AV127" s="5"/>
     </row>
     <row r="128" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B128">
+      <c r="B128" s="9">
+        <v>43972</v>
+      </c>
+      <c r="C128">
         <v>127</v>
-      </c>
-      <c r="C128" s="9">
-        <v>43972</v>
       </c>
       <c r="E128" s="6">
         <v>317554</v>
@@ -14003,11 +14004,11 @@
       <c r="AV128" s="5"/>
     </row>
     <row r="129" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B129">
+      <c r="B129" s="9">
+        <v>43973</v>
+      </c>
+      <c r="C129">
         <v>128</v>
-      </c>
-      <c r="C129" s="9">
-        <v>43973</v>
       </c>
       <c r="E129" s="6">
         <v>326448</v>
@@ -14135,11 +14136,11 @@
       <c r="AV129" s="5"/>
     </row>
     <row r="130" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B130">
+      <c r="B130" s="9">
+        <v>43974</v>
+      </c>
+      <c r="C130">
         <v>129</v>
-      </c>
-      <c r="C130" s="9">
-        <v>43974</v>
       </c>
       <c r="E130" s="6">
         <v>335882</v>
@@ -14269,11 +14270,11 @@
       <c r="AV130" s="5"/>
     </row>
     <row r="131" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B131">
+      <c r="B131" s="9">
+        <v>43975</v>
+      </c>
+      <c r="C131">
         <v>130</v>
-      </c>
-      <c r="C131" s="9">
-        <v>43975</v>
       </c>
       <c r="E131" s="6">
         <v>344481</v>
@@ -14399,11 +14400,11 @@
       <c r="AV131" s="5"/>
     </row>
     <row r="132" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B132">
+      <c r="B132" s="9">
+        <v>43976</v>
+      </c>
+      <c r="C132">
         <v>131</v>
-      </c>
-      <c r="C132" s="9">
-        <v>43976</v>
       </c>
       <c r="E132" s="6">
         <v>353427</v>
@@ -14531,11 +14532,11 @@
       <c r="AV132" s="5"/>
     </row>
     <row r="133" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B133">
+      <c r="B133" s="9">
+        <v>43977</v>
+      </c>
+      <c r="C133">
         <v>132</v>
-      </c>
-      <c r="C133" s="9">
-        <v>43977</v>
       </c>
       <c r="E133" s="6">
         <v>362342</v>
@@ -14663,11 +14664,11 @@
       <c r="AV133" s="5"/>
     </row>
     <row r="134" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B134">
+      <c r="B134" s="9">
+        <v>43978</v>
+      </c>
+      <c r="C134">
         <v>133</v>
-      </c>
-      <c r="C134" s="9">
-        <v>43978</v>
       </c>
       <c r="E134" s="6">
         <v>370680</v>
@@ -14791,11 +14792,11 @@
       <c r="AV134" s="5"/>
     </row>
     <row r="135" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B135">
+      <c r="B135" s="9">
+        <v>43979</v>
+      </c>
+      <c r="C135">
         <v>134</v>
-      </c>
-      <c r="C135" s="9">
-        <v>43979</v>
       </c>
       <c r="E135" s="6">
         <v>379051</v>
@@ -14923,11 +14924,11 @@
       <c r="AV135" s="5"/>
     </row>
     <row r="136" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B136">
+      <c r="B136" s="9">
+        <v>43980</v>
+      </c>
+      <c r="C136">
         <v>135</v>
-      </c>
-      <c r="C136" s="9">
-        <v>43980</v>
       </c>
       <c r="E136" s="6">
         <v>387623</v>
@@ -15057,11 +15058,11 @@
       <c r="AV136" s="5"/>
     </row>
     <row r="137" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B137">
+      <c r="B137" s="9">
+        <v>43981</v>
+      </c>
+      <c r="C137">
         <v>136</v>
-      </c>
-      <c r="C137" s="9">
-        <v>43981</v>
       </c>
       <c r="E137" s="6">
         <v>396575</v>
@@ -15191,11 +15192,11 @@
       <c r="AV137" s="5"/>
     </row>
     <row r="138" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B138">
+      <c r="B138" s="9">
+        <v>43982</v>
+      </c>
+      <c r="C138">
         <v>137</v>
-      </c>
-      <c r="C138" s="9">
-        <v>43982</v>
       </c>
       <c r="E138" s="6">
         <v>405843</v>
@@ -15319,11 +15320,11 @@
       <c r="AV138" s="5"/>
     </row>
     <row r="139" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B139">
+      <c r="B139" s="9">
+        <v>43983</v>
+      </c>
+      <c r="C139">
         <v>138</v>
-      </c>
-      <c r="C139" s="9">
-        <v>43983</v>
       </c>
       <c r="E139" s="6">
         <v>414328</v>
@@ -15449,11 +15450,11 @@
       <c r="AV139" s="5"/>
     </row>
     <row r="140" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B140">
+      <c r="B140" s="9">
+        <v>43984</v>
+      </c>
+      <c r="C140">
         <v>139</v>
-      </c>
-      <c r="C140" s="9">
-        <v>43984</v>
       </c>
       <c r="E140" s="6">
         <v>423186</v>
@@ -15581,11 +15582,11 @@
       <c r="AV140" s="5"/>
     </row>
     <row r="141" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B141">
+      <c r="B141" s="9">
+        <v>43985</v>
+      </c>
+      <c r="C141">
         <v>140</v>
-      </c>
-      <c r="C141" s="9">
-        <v>43985</v>
       </c>
       <c r="E141" s="6">
         <v>431715</v>
@@ -15711,11 +15712,11 @@
       <c r="AV141" s="5"/>
     </row>
     <row r="142" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B142">
+      <c r="B142" s="9">
+        <v>43986</v>
+      </c>
+      <c r="C142">
         <v>141</v>
-      </c>
-      <c r="C142" s="9">
-        <v>43986</v>
       </c>
       <c r="E142" s="6">
         <v>440538</v>
@@ -15843,11 +15844,11 @@
       <c r="AV142" s="5"/>
     </row>
     <row r="143" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B143">
+      <c r="B143" s="9">
+        <v>43987</v>
+      </c>
+      <c r="C143">
         <v>142</v>
-      </c>
-      <c r="C143" s="9">
-        <v>43987</v>
       </c>
       <c r="E143" s="6">
         <v>449256</v>
@@ -15977,11 +15978,11 @@
       <c r="AV143" s="5"/>
     </row>
     <row r="144" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B144">
+      <c r="B144" s="9">
+        <v>43988</v>
+      </c>
+      <c r="C144">
         <v>143</v>
-      </c>
-      <c r="C144" s="9">
-        <v>43988</v>
       </c>
       <c r="E144" s="6">
         <v>458102</v>
@@ -16103,11 +16104,11 @@
       <c r="AV144" s="5"/>
     </row>
     <row r="145" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B145">
+      <c r="B145" s="9">
+        <v>43989</v>
+      </c>
+      <c r="C145">
         <v>144</v>
-      </c>
-      <c r="C145" s="9">
-        <v>43989</v>
       </c>
       <c r="E145" s="6">
         <v>467073</v>
@@ -16233,11 +16234,11 @@
       <c r="AV145" s="5"/>
     </row>
     <row r="146" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B146">
+      <c r="B146" s="9">
+        <v>43990</v>
+      </c>
+      <c r="C146">
         <v>145</v>
-      </c>
-      <c r="C146" s="9">
-        <v>43990</v>
       </c>
       <c r="E146" s="6">
         <v>476043</v>
@@ -16363,11 +16364,11 @@
       <c r="AV146" s="5"/>
     </row>
     <row r="147" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B147">
+      <c r="B147" s="9">
+        <v>43991</v>
+      </c>
+      <c r="C147">
         <v>146</v>
-      </c>
-      <c r="C147" s="9">
-        <v>43991</v>
       </c>
       <c r="E147" s="6">
         <v>484630</v>
@@ -16495,11 +16496,11 @@
       <c r="AV147" s="5"/>
     </row>
     <row r="148" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B148">
+      <c r="B148" s="9">
+        <v>43992</v>
+      </c>
+      <c r="C148">
         <v>147</v>
-      </c>
-      <c r="C148" s="9">
-        <v>43992</v>
       </c>
       <c r="E148" s="6">
         <v>493023</v>
@@ -16627,11 +16628,11 @@
       <c r="AV148" s="5"/>
     </row>
     <row r="149" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B149">
+      <c r="B149" s="9">
+        <v>43993</v>
+      </c>
+      <c r="C149">
         <v>148</v>
-      </c>
-      <c r="C149" s="9">
-        <v>43993</v>
       </c>
       <c r="E149" s="6">
         <v>501800</v>
@@ -16755,11 +16756,11 @@
       <c r="AV149" s="5"/>
     </row>
     <row r="150" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B150">
+      <c r="B150" s="9">
+        <v>43994</v>
+      </c>
+      <c r="C150">
         <v>149</v>
-      </c>
-      <c r="C150" s="9">
-        <v>43994</v>
       </c>
       <c r="E150" s="6">
         <v>510761</v>
@@ -16887,11 +16888,11 @@
       <c r="AV150" s="5"/>
     </row>
     <row r="151" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B151">
+      <c r="B151" s="9">
+        <v>43995</v>
+      </c>
+      <c r="C151">
         <v>150</v>
-      </c>
-      <c r="C151" s="9">
-        <v>43995</v>
       </c>
       <c r="E151" s="6">
         <v>519458</v>
@@ -17013,11 +17014,11 @@
       <c r="AV151" s="5"/>
     </row>
     <row r="152" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B152">
+      <c r="B152" s="9">
+        <v>43996</v>
+      </c>
+      <c r="C152">
         <v>151</v>
-      </c>
-      <c r="C152" s="9">
-        <v>43996</v>
       </c>
       <c r="E152" s="6">
         <v>528267</v>
@@ -17139,11 +17140,11 @@
       <c r="AV152" s="5"/>
     </row>
     <row r="153" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B153">
+      <c r="B153" s="9">
+        <v>43997</v>
+      </c>
+      <c r="C153">
         <v>152</v>
-      </c>
-      <c r="C153" s="9">
-        <v>43997</v>
       </c>
       <c r="E153" s="6">
         <v>536484</v>
@@ -17271,11 +17272,11 @@
       <c r="AV153" s="5"/>
     </row>
     <row r="154" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B154">
+      <c r="B154" s="9">
+        <v>43998</v>
+      </c>
+      <c r="C154">
         <v>153</v>
-      </c>
-      <c r="C154" s="9">
-        <v>43998</v>
       </c>
       <c r="E154" s="6">
         <v>544725</v>
@@ -17407,11 +17408,11 @@
       <c r="AV154" s="5"/>
     </row>
     <row r="155" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B155">
+      <c r="B155" s="9">
+        <v>43999</v>
+      </c>
+      <c r="C155">
         <v>154</v>
-      </c>
-      <c r="C155" s="9">
-        <v>43999</v>
       </c>
       <c r="E155" s="6">
         <v>552549</v>
@@ -17541,11 +17542,11 @@
       <c r="AV155" s="5"/>
     </row>
     <row r="156" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B156">
+      <c r="B156" s="9">
+        <v>44000</v>
+      </c>
+      <c r="C156">
         <v>155</v>
-      </c>
-      <c r="C156" s="9">
-        <v>44000</v>
       </c>
       <c r="E156" s="6">
         <v>560321</v>
@@ -17677,11 +17678,11 @@
       <c r="AV156" s="5"/>
     </row>
     <row r="157" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B157">
+      <c r="B157" s="9">
+        <v>44001</v>
+      </c>
+      <c r="C157">
         <v>156</v>
-      </c>
-      <c r="C157" s="9">
-        <v>44001</v>
       </c>
       <c r="E157" s="6">
         <v>568292</v>
@@ -17809,11 +17810,11 @@
       <c r="AV157" s="5"/>
     </row>
     <row r="158" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B158">
+      <c r="B158" s="9">
+        <v>44002</v>
+      </c>
+      <c r="C158">
         <v>157</v>
-      </c>
-      <c r="C158" s="9">
-        <v>44002</v>
       </c>
       <c r="E158" s="6">
         <v>576162</v>
@@ -17937,11 +17938,11 @@
       <c r="AV158" s="5"/>
     </row>
     <row r="159" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B159">
+      <c r="B159" s="9">
+        <v>44003</v>
+      </c>
+      <c r="C159">
         <v>158</v>
-      </c>
-      <c r="C159" s="9">
-        <v>44003</v>
       </c>
       <c r="E159" s="6">
         <v>583879</v>
@@ -18063,11 +18064,11 @@
       <c r="AV159" s="5"/>
     </row>
     <row r="160" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B160">
+      <c r="B160" s="9">
+        <v>44004</v>
+      </c>
+      <c r="C160">
         <v>159</v>
-      </c>
-      <c r="C160" s="9">
-        <v>44004</v>
       </c>
       <c r="E160" s="6">
         <v>591465</v>
@@ -18197,11 +18198,11 @@
       </c>
     </row>
     <row r="161" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B161">
+      <c r="B161" s="9">
+        <v>44005</v>
+      </c>
+      <c r="C161">
         <v>160</v>
-      </c>
-      <c r="C161" s="9">
-        <v>44005</v>
       </c>
       <c r="E161" s="6">
         <v>598878</v>
@@ -18333,11 +18334,11 @@
       </c>
     </row>
     <row r="162" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B162">
+      <c r="B162" s="9">
+        <v>44006</v>
+      </c>
+      <c r="C162">
         <v>161</v>
-      </c>
-      <c r="C162" s="9">
-        <v>44006</v>
       </c>
       <c r="E162" s="6">
         <v>606043</v>
@@ -18467,11 +18468,11 @@
       </c>
     </row>
     <row r="163" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B163">
+      <c r="B163" s="9">
+        <v>44007</v>
+      </c>
+      <c r="C163">
         <v>162</v>
-      </c>
-      <c r="C163" s="9">
-        <v>44007</v>
       </c>
       <c r="E163" s="6">
         <v>613148</v>
@@ -18597,11 +18598,11 @@
       <c r="AV163" s="5"/>
     </row>
     <row r="164" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B164">
+      <c r="B164" s="9">
+        <v>44008</v>
+      </c>
+      <c r="C164">
         <v>163</v>
-      </c>
-      <c r="C164" s="9">
-        <v>44008</v>
       </c>
       <c r="E164" s="6">
         <v>619936</v>
@@ -18731,11 +18732,11 @@
       <c r="AV164" s="5"/>
     </row>
     <row r="165" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B165">
+      <c r="B165" s="9">
+        <v>44009</v>
+      </c>
+      <c r="C165">
         <v>164</v>
-      </c>
-      <c r="C165" s="9">
-        <v>44009</v>
       </c>
       <c r="E165" s="6">
         <v>626779</v>
@@ -18859,11 +18860,11 @@
       <c r="AV165" s="5"/>
     </row>
     <row r="166" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B166">
+      <c r="B166" s="9">
+        <v>44010</v>
+      </c>
+      <c r="C166">
         <v>165</v>
-      </c>
-      <c r="C166" s="9">
-        <v>44010</v>
       </c>
       <c r="E166" s="6">
         <v>633563</v>
@@ -18983,11 +18984,11 @@
       <c r="AV166" s="5"/>
     </row>
     <row r="167" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B167">
+      <c r="B167" s="9">
+        <v>44011</v>
+      </c>
+      <c r="C167">
         <v>166</v>
-      </c>
-      <c r="C167" s="9">
-        <v>44011</v>
       </c>
       <c r="E167" s="6">
         <v>640246</v>
@@ -19113,11 +19114,11 @@
       <c r="AV167" s="5"/>
     </row>
     <row r="168" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B168">
+      <c r="B168" s="9">
+        <v>44012</v>
+      </c>
+      <c r="C168">
         <v>167</v>
-      </c>
-      <c r="C168" s="9">
-        <v>44012</v>
       </c>
       <c r="E168" s="6">
         <v>646929</v>
@@ -19245,11 +19246,11 @@
       <c r="AV168" s="5"/>
     </row>
     <row r="169" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B169">
+      <c r="B169" s="9">
+        <v>44013</v>
+      </c>
+      <c r="C169">
         <v>168</v>
-      </c>
-      <c r="C169" s="9">
-        <v>44013</v>
       </c>
       <c r="E169" s="6">
         <v>653479</v>
@@ -19377,11 +19378,11 @@
       <c r="AV169" s="5"/>
     </row>
     <row r="170" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B170">
+      <c r="B170" s="9">
+        <v>44014</v>
+      </c>
+      <c r="C170">
         <v>169</v>
-      </c>
-      <c r="C170" s="9">
-        <v>44014</v>
       </c>
       <c r="E170" s="6">
         <v>660231</v>
@@ -19513,11 +19514,11 @@
       </c>
     </row>
     <row r="171" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B171">
+      <c r="B171" s="9">
+        <v>44015</v>
+      </c>
+      <c r="C171">
         <v>170</v>
-      </c>
-      <c r="C171" s="9">
-        <v>44015</v>
       </c>
       <c r="E171" s="6">
         <v>666941</v>
@@ -19645,11 +19646,11 @@
       <c r="AV171" s="5"/>
     </row>
     <row r="172" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B172">
+      <c r="B172" s="9">
+        <v>44016</v>
+      </c>
+      <c r="C172">
         <v>171</v>
-      </c>
-      <c r="C172" s="9">
-        <v>44016</v>
       </c>
       <c r="E172" s="6">
         <v>673564</v>
@@ -19769,11 +19770,11 @@
       <c r="AV172" s="5"/>
     </row>
     <row r="173" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B173">
+      <c r="B173" s="9">
+        <v>44017</v>
+      </c>
+      <c r="C173">
         <v>172</v>
-      </c>
-      <c r="C173" s="9">
-        <v>44017</v>
       </c>
       <c r="E173" s="6">
         <v>680283</v>
@@ -19895,11 +19896,11 @@
       <c r="AV173" s="5"/>
     </row>
     <row r="174" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B174">
+      <c r="B174" s="9">
+        <v>44018</v>
+      </c>
+      <c r="C174">
         <v>173</v>
-      </c>
-      <c r="C174" s="9">
-        <v>44018</v>
       </c>
       <c r="E174" s="6">
         <v>686852</v>
@@ -20027,11 +20028,11 @@
       </c>
     </row>
     <row r="175" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B175">
+      <c r="B175" s="9">
+        <v>44019</v>
+      </c>
+      <c r="C175">
         <v>174</v>
-      </c>
-      <c r="C175" s="9">
-        <v>44019</v>
       </c>
       <c r="E175" s="6">
         <v>693215</v>
@@ -20159,11 +20160,11 @@
       <c r="AV175" s="5"/>
     </row>
     <row r="176" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B176">
+      <c r="B176" s="9">
+        <v>44020</v>
+      </c>
+      <c r="C176">
         <v>175</v>
-      </c>
-      <c r="C176" s="9">
-        <v>44020</v>
       </c>
       <c r="E176" s="6">
         <v>699749</v>
@@ -20293,11 +20294,11 @@
       <c r="AV176" s="5"/>
     </row>
     <row r="177" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B177">
+      <c r="B177" s="9">
+        <v>44021</v>
+      </c>
+      <c r="C177">
         <v>176</v>
-      </c>
-      <c r="C177" s="9">
-        <v>44021</v>
       </c>
       <c r="E177" s="6">
         <v>706240</v>
@@ -20429,11 +20430,11 @@
       <c r="AV177" s="5"/>
     </row>
     <row r="178" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B178">
+      <c r="B178" s="9">
+        <v>44022</v>
+      </c>
+      <c r="C178">
         <v>177</v>
-      </c>
-      <c r="C178" s="9">
-        <v>44022</v>
       </c>
       <c r="E178" s="6">
         <v>712863</v>
@@ -20561,11 +20562,11 @@
       <c r="AV178" s="5"/>
     </row>
     <row r="179" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B179">
+      <c r="B179" s="9">
+        <v>44023</v>
+      </c>
+      <c r="C179">
         <v>178</v>
-      </c>
-      <c r="C179" s="9">
-        <v>44023</v>
       </c>
       <c r="E179" s="6">
         <v>719449</v>
@@ -20687,11 +20688,11 @@
       <c r="AV179" s="5"/>
     </row>
     <row r="180" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B180">
+      <c r="B180" s="9">
+        <v>44024</v>
+      </c>
+      <c r="C180">
         <v>179</v>
-      </c>
-      <c r="C180" s="9">
-        <v>44024</v>
       </c>
       <c r="E180" s="6">
         <v>726036</v>
@@ -20811,11 +20812,11 @@
       <c r="AV180" s="5"/>
     </row>
     <row r="181" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B181">
+      <c r="B181" s="9">
+        <v>44025</v>
+      </c>
+      <c r="C181">
         <v>180</v>
-      </c>
-      <c r="C181" s="9">
-        <v>44025</v>
       </c>
       <c r="E181" s="6">
         <v>732547</v>
@@ -20939,11 +20940,11 @@
       <c r="AV181" s="5"/>
     </row>
     <row r="182" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B182">
+      <c r="B182" s="9">
+        <v>44026</v>
+      </c>
+      <c r="C182">
         <v>181</v>
-      </c>
-      <c r="C182" s="9">
-        <v>44026</v>
       </c>
       <c r="E182" s="6">
         <v>738787</v>
@@ -21067,11 +21068,11 @@
       <c r="AV182" s="5"/>
     </row>
     <row r="183" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B183">
+      <c r="B183" s="9">
+        <v>44027</v>
+      </c>
+      <c r="C183">
         <v>182</v>
-      </c>
-      <c r="C183" s="9">
-        <v>44027</v>
       </c>
       <c r="E183" s="6">
         <v>745197</v>
@@ -21199,11 +21200,11 @@
       <c r="AV183" s="5"/>
     </row>
     <row r="184" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B184">
+      <c r="B184" s="9">
+        <v>44028</v>
+      </c>
+      <c r="C184">
         <v>183</v>
-      </c>
-      <c r="C184" s="9">
-        <v>44028</v>
       </c>
       <c r="E184" s="6">
         <v>751612</v>
@@ -21331,11 +21332,11 @@
       <c r="AV184" s="5"/>
     </row>
     <row r="185" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B185">
+      <c r="B185" s="9">
+        <v>44029</v>
+      </c>
+      <c r="C185">
         <v>184</v>
-      </c>
-      <c r="C185" s="9">
-        <v>44029</v>
       </c>
       <c r="E185" s="6">
         <v>758001</v>
@@ -21467,11 +21468,11 @@
       </c>
     </row>
     <row r="186" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B186">
+      <c r="B186" s="9">
+        <v>44030</v>
+      </c>
+      <c r="C186">
         <v>185</v>
-      </c>
-      <c r="C186" s="9">
-        <v>44030</v>
       </c>
       <c r="E186" s="6">
         <v>764215</v>
@@ -21595,11 +21596,11 @@
       </c>
     </row>
     <row r="187" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B187">
+      <c r="B187" s="9">
+        <v>44031</v>
+      </c>
+      <c r="C187">
         <v>186</v>
-      </c>
-      <c r="C187" s="9">
-        <v>44031</v>
       </c>
       <c r="E187" s="6">
         <v>770311</v>
@@ -21715,11 +21716,11 @@
       <c r="AV187" s="5"/>
     </row>
     <row r="188" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B188">
+      <c r="B188" s="9">
+        <v>44032</v>
+      </c>
+      <c r="C188">
         <v>187</v>
-      </c>
-      <c r="C188" s="9">
-        <v>44032</v>
       </c>
       <c r="E188" s="6">
         <v>776212</v>
@@ -21843,11 +21844,11 @@
       <c r="AV188" s="5"/>
     </row>
     <row r="189" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B189">
+      <c r="B189" s="9">
+        <v>44033</v>
+      </c>
+      <c r="C189">
         <v>188</v>
-      </c>
-      <c r="C189" s="9">
-        <v>44033</v>
       </c>
       <c r="E189" s="6">
         <v>782040</v>
@@ -21975,11 +21976,11 @@
       <c r="AV189" s="5"/>
     </row>
     <row r="190" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B190">
+      <c r="B190" s="9">
+        <v>44034</v>
+      </c>
+      <c r="C190">
         <v>189</v>
-      </c>
-      <c r="C190" s="9">
-        <v>44034</v>
       </c>
       <c r="E190" s="6">
         <v>787890</v>
@@ -22111,11 +22112,11 @@
       </c>
     </row>
     <row r="191" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B191">
+      <c r="B191" s="9">
+        <v>44035</v>
+      </c>
+      <c r="C191">
         <v>190</v>
-      </c>
-      <c r="C191" s="9">
-        <v>44035</v>
       </c>
       <c r="E191" s="6">
         <v>793720</v>
@@ -22245,11 +22246,11 @@
       <c r="AV191" s="5"/>
     </row>
     <row r="192" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B192">
+      <c r="B192" s="9">
+        <v>44036</v>
+      </c>
+      <c r="C192">
         <v>191</v>
-      </c>
-      <c r="C192" s="9">
-        <v>44036</v>
       </c>
       <c r="E192" s="6">
         <v>799499</v>
@@ -22383,11 +22384,11 @@
       <c r="AV192" s="5"/>
     </row>
     <row r="193" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B193">
+      <c r="B193" s="9">
+        <v>44037</v>
+      </c>
+      <c r="C193">
         <v>192</v>
-      </c>
-      <c r="C193" s="9">
-        <v>44037</v>
       </c>
       <c r="E193" s="6">
         <v>805332</v>
@@ -22503,11 +22504,11 @@
       <c r="AV193" s="5"/>
     </row>
     <row r="194" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B194">
+      <c r="B194" s="9">
+        <v>44038</v>
+      </c>
+      <c r="C194">
         <v>193</v>
-      </c>
-      <c r="C194" s="9">
-        <v>44038</v>
       </c>
       <c r="E194" s="6">
         <v>811073</v>
@@ -22625,11 +22626,11 @@
       <c r="AV194" s="5"/>
     </row>
     <row r="195" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B195">
+      <c r="B195" s="9">
+        <v>44039</v>
+      </c>
+      <c r="C195">
         <v>194</v>
-      </c>
-      <c r="C195" s="9">
-        <v>44039</v>
       </c>
       <c r="E195" s="6">
         <v>816680</v>
@@ -22757,11 +22758,11 @@
       <c r="AV195" s="5"/>
     </row>
     <row r="196" spans="2:48" x14ac:dyDescent="0.35">
-      <c r="B196">
+      <c r="B196" s="9">
+        <v>44040</v>
+      </c>
+      <c r="C196">
         <v>195</v>
-      </c>
-      <c r="C196" s="9">
-        <v>44040</v>
       </c>
       <c r="E196" s="10">
         <v>822060</v>

--- a/Database/Cornestean/Europa.xlsx
+++ b/Database/Cornestean/Europa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Repository Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE066C-1264-4543-A21D-1438993D7E6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7BE40-E185-40D0-86C1-64E55F498D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +281,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,24 +599,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV196"/>
+  <dimension ref="A1:AV225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AE205" workbookViewId="0">
+      <selection activeCell="AQ217" sqref="AQ217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" customWidth="1"/>
-    <col min="3" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="178" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="14.1796875" customWidth="1"/>
-    <col min="180" max="196" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="178" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="14.140625" customWidth="1"/>
+    <col min="180" max="196" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>43846</v>
       </c>
@@ -801,7 +811,7 @@
       <c r="AU2" s="6"/>
       <c r="AV2" s="5"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>43847</v>
       </c>
@@ -853,7 +863,7 @@
       <c r="AU3" s="6"/>
       <c r="AV3" s="5"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>43848</v>
       </c>
@@ -905,7 +915,7 @@
       <c r="AU4" s="6"/>
       <c r="AV4" s="5"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>43849</v>
       </c>
@@ -957,7 +967,7 @@
       <c r="AU5" s="6"/>
       <c r="AV5" s="5"/>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>43850</v>
       </c>
@@ -1009,7 +1019,7 @@
       <c r="AU6" s="6"/>
       <c r="AV6" s="5"/>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>43851</v>
       </c>
@@ -1061,7 +1071,7 @@
       <c r="AU7" s="6"/>
       <c r="AV7" s="5"/>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>43852</v>
       </c>
@@ -1113,7 +1123,7 @@
       <c r="AU8" s="6"/>
       <c r="AV8" s="5"/>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>43853</v>
       </c>
@@ -1165,7 +1175,7 @@
       <c r="AU9" s="6"/>
       <c r="AV9" s="5"/>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>43854</v>
       </c>
@@ -1219,7 +1229,7 @@
       <c r="AU10" s="6"/>
       <c r="AV10" s="5"/>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>43855</v>
       </c>
@@ -1273,7 +1283,7 @@
       <c r="AU11" s="6"/>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>43856</v>
       </c>
@@ -1325,7 +1335,7 @@
       <c r="AU12" s="6"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>43857</v>
       </c>
@@ -1379,7 +1389,7 @@
       <c r="AU13" s="6"/>
       <c r="AV13" s="5"/>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>43858</v>
       </c>
@@ -1435,7 +1445,7 @@
       <c r="AU14" s="6"/>
       <c r="AV14" s="5"/>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>43859</v>
       </c>
@@ -1491,7 +1501,7 @@
       <c r="AU15" s="6"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>43860</v>
       </c>
@@ -1543,7 +1553,7 @@
       <c r="AU16" s="6"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>43861</v>
       </c>
@@ -1605,7 +1615,7 @@
       <c r="AU17" s="6"/>
       <c r="AV17" s="5"/>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>43862</v>
       </c>
@@ -1663,7 +1673,7 @@
       <c r="AU18" s="6"/>
       <c r="AV18" s="5"/>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>43863</v>
       </c>
@@ -1717,7 +1727,7 @@
       <c r="AU19" s="6"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>43864</v>
       </c>
@@ -1771,7 +1781,7 @@
       <c r="AU20" s="6"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>43865</v>
       </c>
@@ -1825,7 +1835,7 @@
       <c r="AU21" s="6"/>
       <c r="AV21" s="5"/>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>43866</v>
       </c>
@@ -1877,7 +1887,7 @@
       <c r="AU22" s="6"/>
       <c r="AV22" s="5"/>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <v>43867</v>
       </c>
@@ -1929,7 +1939,7 @@
       <c r="AU23" s="6"/>
       <c r="AV23" s="5"/>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>43868</v>
       </c>
@@ -1987,7 +1997,7 @@
       <c r="AU24" s="6"/>
       <c r="AV24" s="5"/>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>43869</v>
       </c>
@@ -2041,7 +2051,7 @@
       <c r="AU25" s="6"/>
       <c r="AV25" s="5"/>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>43870</v>
       </c>
@@ -2097,7 +2107,7 @@
       <c r="AU26" s="6"/>
       <c r="AV26" s="5"/>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>43871</v>
       </c>
@@ -2151,7 +2161,7 @@
       <c r="AU27" s="6"/>
       <c r="AV27" s="5"/>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>43872</v>
       </c>
@@ -2205,7 +2215,7 @@
       <c r="AU28" s="6"/>
       <c r="AV28" s="5"/>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>43873</v>
       </c>
@@ -2265,7 +2275,7 @@
       <c r="AU29" s="6"/>
       <c r="AV29" s="5"/>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>43874</v>
       </c>
@@ -2319,7 +2329,7 @@
       <c r="AU30" s="6"/>
       <c r="AV30" s="5"/>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>43875</v>
       </c>
@@ -2371,7 +2381,7 @@
       <c r="AU31" s="6"/>
       <c r="AV31" s="5"/>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>43876</v>
       </c>
@@ -2427,7 +2437,7 @@
       <c r="AU32" s="6"/>
       <c r="AV32" s="5"/>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>43877</v>
       </c>
@@ -2481,7 +2491,7 @@
       <c r="AU33" s="6"/>
       <c r="AV33" s="5"/>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>43878</v>
       </c>
@@ -2535,7 +2545,7 @@
       <c r="AU34" s="6"/>
       <c r="AV34" s="5"/>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <v>43879</v>
       </c>
@@ -2589,7 +2599,7 @@
       <c r="AU35" s="6"/>
       <c r="AV35" s="5"/>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>43880</v>
       </c>
@@ -2641,7 +2651,7 @@
       <c r="AU36" s="6"/>
       <c r="AV36" s="5"/>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <v>43881</v>
       </c>
@@ -2693,7 +2703,7 @@
       <c r="AU37" s="6"/>
       <c r="AV37" s="5"/>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <v>43882</v>
       </c>
@@ -2749,7 +2759,7 @@
       <c r="AU38" s="6"/>
       <c r="AV38" s="5"/>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>43883</v>
       </c>
@@ -2803,7 +2813,7 @@
       <c r="AU39" s="6"/>
       <c r="AV39" s="5"/>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>43884</v>
       </c>
@@ -2857,7 +2867,7 @@
       <c r="AU40" s="6"/>
       <c r="AV40" s="5"/>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>43885</v>
       </c>
@@ -2913,7 +2923,7 @@
       <c r="AU41" s="6"/>
       <c r="AV41" s="5"/>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>43886</v>
       </c>
@@ -2979,7 +2989,7 @@
       <c r="AU42" s="6"/>
       <c r="AV42" s="5"/>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>43887</v>
       </c>
@@ -3051,7 +3061,7 @@
       <c r="AU43" s="6"/>
       <c r="AV43" s="5"/>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>43888</v>
       </c>
@@ -3129,7 +3139,7 @@
       <c r="AU44" s="6"/>
       <c r="AV44" s="5"/>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>43889</v>
       </c>
@@ -3205,7 +3215,7 @@
       <c r="AU45" s="6"/>
       <c r="AV45" s="5"/>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>43890</v>
       </c>
@@ -3289,7 +3299,7 @@
       </c>
       <c r="AV46" s="5"/>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>43891</v>
       </c>
@@ -3375,7 +3385,7 @@
       <c r="AU47" s="6"/>
       <c r="AV47" s="5"/>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B48" s="9">
         <v>43892</v>
       </c>
@@ -3461,7 +3471,7 @@
       <c r="AU48" s="6"/>
       <c r="AV48" s="5"/>
     </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
         <v>43893</v>
       </c>
@@ -3551,7 +3561,7 @@
       <c r="AU49" s="6"/>
       <c r="AV49" s="5"/>
     </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B50" s="9">
         <v>43894</v>
       </c>
@@ -3649,7 +3659,7 @@
       <c r="AU50" s="6"/>
       <c r="AV50" s="5"/>
     </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B51" s="9">
         <v>43895</v>
       </c>
@@ -3747,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>43896</v>
       </c>
@@ -3853,7 +3863,7 @@
       <c r="AU52" s="6"/>
       <c r="AV52" s="5"/>
     </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>43897</v>
       </c>
@@ -3947,7 +3957,7 @@
       <c r="AU53" s="6"/>
       <c r="AV53" s="5"/>
     </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>43898</v>
       </c>
@@ -4055,7 +4065,7 @@
       <c r="AU54" s="6"/>
       <c r="AV54" s="5"/>
     </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>43899</v>
       </c>
@@ -4149,7 +4159,7 @@
       <c r="AU55" s="6"/>
       <c r="AV55" s="5"/>
     </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>43900</v>
       </c>
@@ -4271,7 +4281,7 @@
       <c r="AU56" s="6"/>
       <c r="AV56" s="5"/>
     </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>43901</v>
       </c>
@@ -4397,7 +4407,7 @@
       <c r="AU57" s="6"/>
       <c r="AV57" s="5"/>
     </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>43902</v>
       </c>
@@ -4493,7 +4503,7 @@
       </c>
       <c r="AV58" s="5"/>
     </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>43903</v>
       </c>
@@ -4627,7 +4637,7 @@
       <c r="AU59" s="6"/>
       <c r="AV59" s="5"/>
     </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B60" s="9">
         <v>43904</v>
       </c>
@@ -4757,7 +4767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>43905</v>
       </c>
@@ -4881,7 +4891,7 @@
       <c r="AU61" s="6"/>
       <c r="AV61" s="5"/>
     </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B62" s="9">
         <v>43906</v>
       </c>
@@ -5011,7 +5021,7 @@
       </c>
       <c r="AV62" s="5"/>
     </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>43907</v>
       </c>
@@ -5145,7 +5155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>43908</v>
       </c>
@@ -5273,7 +5283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B65" s="9">
         <v>43909</v>
       </c>
@@ -5405,7 +5415,7 @@
       <c r="AU65" s="6"/>
       <c r="AV65" s="5"/>
     </row>
-    <row r="66" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B66" s="9">
         <v>43910</v>
       </c>
@@ -5541,7 +5551,7 @@
       </c>
       <c r="AV66" s="5"/>
     </row>
-    <row r="67" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B67" s="9">
         <v>43911</v>
       </c>
@@ -5677,7 +5687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>43912</v>
       </c>
@@ -5813,7 +5823,7 @@
       </c>
       <c r="AV68" s="5"/>
     </row>
-    <row r="69" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>43913</v>
       </c>
@@ -5949,7 +5959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B70" s="9">
         <v>43914</v>
       </c>
@@ -6085,7 +6095,7 @@
       <c r="AU70" s="6"/>
       <c r="AV70" s="5"/>
     </row>
-    <row r="71" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B71" s="9">
         <v>43915</v>
       </c>
@@ -6223,7 +6233,7 @@
       </c>
       <c r="AV71" s="5"/>
     </row>
-    <row r="72" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B72" s="9">
         <v>43916</v>
       </c>
@@ -6359,7 +6369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B73" s="9">
         <v>43917</v>
       </c>
@@ -6497,7 +6507,7 @@
       </c>
       <c r="AV73" s="5"/>
     </row>
-    <row r="74" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B74" s="9">
         <v>43918</v>
       </c>
@@ -6631,7 +6641,7 @@
       <c r="AU74" s="6"/>
       <c r="AV74" s="5"/>
     </row>
-    <row r="75" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B75" s="9">
         <v>43919</v>
       </c>
@@ -6765,7 +6775,7 @@
       </c>
       <c r="AV75" s="5"/>
     </row>
-    <row r="76" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B76" s="9">
         <v>43920</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B77" s="9">
         <v>43921</v>
       </c>
@@ -7045,7 +7055,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B78" s="9">
         <v>43922</v>
       </c>
@@ -7181,7 +7191,7 @@
       </c>
       <c r="AV78" s="5"/>
     </row>
-    <row r="79" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
         <v>43923</v>
       </c>
@@ -7321,7 +7331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
         <v>43924</v>
       </c>
@@ -7457,7 +7467,7 @@
       </c>
       <c r="AV80" s="5"/>
     </row>
-    <row r="81" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>43925</v>
       </c>
@@ -7597,7 +7607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>43926</v>
       </c>
@@ -7735,7 +7745,7 @@
       </c>
       <c r="AV82" s="5"/>
     </row>
-    <row r="83" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>43927</v>
       </c>
@@ -7873,7 +7883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
         <v>43928</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B85" s="9">
         <v>43929</v>
       </c>
@@ -8149,7 +8159,7 @@
       </c>
       <c r="AV85" s="5"/>
     </row>
-    <row r="86" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B86" s="9">
         <v>43930</v>
       </c>
@@ -8287,7 +8297,7 @@
       </c>
       <c r="AV86" s="5"/>
     </row>
-    <row r="87" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B87" s="9">
         <v>43931</v>
       </c>
@@ -8427,7 +8437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B88" s="9">
         <v>43932</v>
       </c>
@@ -8563,7 +8573,7 @@
       </c>
       <c r="AV88" s="5"/>
     </row>
-    <row r="89" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B89" s="9">
         <v>43933</v>
       </c>
@@ -8699,7 +8709,7 @@
       </c>
       <c r="AV89" s="5"/>
     </row>
-    <row r="90" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B90" s="9">
         <v>43934</v>
       </c>
@@ -8833,7 +8843,7 @@
       <c r="AU90" s="6"/>
       <c r="AV90" s="5"/>
     </row>
-    <row r="91" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B91" s="9">
         <v>43935</v>
       </c>
@@ -8969,7 +8979,7 @@
       <c r="AU91" s="6"/>
       <c r="AV91" s="5"/>
     </row>
-    <row r="92" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B92" s="9">
         <v>43936</v>
       </c>
@@ -9107,7 +9117,7 @@
       </c>
       <c r="AV92" s="5"/>
     </row>
-    <row r="93" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B93" s="9">
         <v>43937</v>
       </c>
@@ -9241,7 +9251,7 @@
       <c r="AU93" s="6"/>
       <c r="AV93" s="5"/>
     </row>
-    <row r="94" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B94" s="9">
         <v>43938</v>
       </c>
@@ -9379,7 +9389,7 @@
       </c>
       <c r="AV94" s="5"/>
     </row>
-    <row r="95" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B95" s="9">
         <v>43939</v>
       </c>
@@ -9517,7 +9527,7 @@
       </c>
       <c r="AV95" s="5"/>
     </row>
-    <row r="96" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B96" s="9">
         <v>43940</v>
       </c>
@@ -9655,7 +9665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B97" s="9">
         <v>43941</v>
       </c>
@@ -9793,7 +9803,7 @@
       </c>
       <c r="AV97" s="5"/>
     </row>
-    <row r="98" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B98" s="9">
         <v>43942</v>
       </c>
@@ -9931,7 +9941,7 @@
       </c>
       <c r="AV98" s="5"/>
     </row>
-    <row r="99" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B99" s="9">
         <v>43943</v>
       </c>
@@ -10067,7 +10077,7 @@
       <c r="AU99" s="6"/>
       <c r="AV99" s="5"/>
     </row>
-    <row r="100" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B100" s="9">
         <v>43944</v>
       </c>
@@ -10205,7 +10215,7 @@
       </c>
       <c r="AV100" s="5"/>
     </row>
-    <row r="101" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B101" s="9">
         <v>43945</v>
       </c>
@@ -10343,7 +10353,7 @@
       </c>
       <c r="AV101" s="5"/>
     </row>
-    <row r="102" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B102" s="9">
         <v>43946</v>
       </c>
@@ -10477,7 +10487,7 @@
       </c>
       <c r="AV102" s="5"/>
     </row>
-    <row r="103" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B103" s="9">
         <v>43947</v>
       </c>
@@ -10611,7 +10621,7 @@
       <c r="AU103" s="6"/>
       <c r="AV103" s="5"/>
     </row>
-    <row r="104" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B104" s="9">
         <v>43948</v>
       </c>
@@ -10747,7 +10757,7 @@
       </c>
       <c r="AV104" s="5"/>
     </row>
-    <row r="105" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B105" s="9">
         <v>43949</v>
       </c>
@@ -10885,7 +10895,7 @@
       </c>
       <c r="AV105" s="5"/>
     </row>
-    <row r="106" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B106" s="9">
         <v>43950</v>
       </c>
@@ -11023,7 +11033,7 @@
       </c>
       <c r="AV106" s="5"/>
     </row>
-    <row r="107" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B107" s="9">
         <v>43951</v>
       </c>
@@ -11161,7 +11171,7 @@
       </c>
       <c r="AV107" s="5"/>
     </row>
-    <row r="108" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B108" s="9">
         <v>43952</v>
       </c>
@@ -11295,7 +11305,7 @@
       </c>
       <c r="AV108" s="5"/>
     </row>
-    <row r="109" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B109" s="9">
         <v>43953</v>
       </c>
@@ -11433,7 +11443,7 @@
       </c>
       <c r="AV109" s="5"/>
     </row>
-    <row r="110" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B110" s="9">
         <v>43954</v>
       </c>
@@ -11569,7 +11579,7 @@
       <c r="AU110" s="6"/>
       <c r="AV110" s="5"/>
     </row>
-    <row r="111" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B111" s="9">
         <v>43955</v>
       </c>
@@ -11703,7 +11713,7 @@
       <c r="AU111" s="6"/>
       <c r="AV111" s="5"/>
     </row>
-    <row r="112" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B112" s="9">
         <v>43956</v>
       </c>
@@ -11841,7 +11851,7 @@
       </c>
       <c r="AV112" s="5"/>
     </row>
-    <row r="113" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B113" s="9">
         <v>43957</v>
       </c>
@@ -11979,7 +11989,7 @@
       </c>
       <c r="AV113" s="5"/>
     </row>
-    <row r="114" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B114" s="9">
         <v>43958</v>
       </c>
@@ -12115,7 +12125,7 @@
       <c r="AU114" s="6"/>
       <c r="AV114" s="5"/>
     </row>
-    <row r="115" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B115" s="9">
         <v>43959</v>
       </c>
@@ -12251,7 +12261,7 @@
       <c r="AU115" s="6"/>
       <c r="AV115" s="5"/>
     </row>
-    <row r="116" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B116" s="9">
         <v>43960</v>
       </c>
@@ -12389,7 +12399,7 @@
       </c>
       <c r="AV116" s="5"/>
     </row>
-    <row r="117" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B117" s="9">
         <v>43961</v>
       </c>
@@ -12521,7 +12531,7 @@
       <c r="AU117" s="6"/>
       <c r="AV117" s="5"/>
     </row>
-    <row r="118" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B118" s="9">
         <v>43962</v>
       </c>
@@ -12655,7 +12665,7 @@
       </c>
       <c r="AV118" s="5"/>
     </row>
-    <row r="119" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B119" s="9">
         <v>43963</v>
       </c>
@@ -12791,7 +12801,7 @@
       <c r="AU119" s="6"/>
       <c r="AV119" s="5"/>
     </row>
-    <row r="120" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B120" s="9">
         <v>43964</v>
       </c>
@@ -12929,7 +12939,7 @@
       </c>
       <c r="AV120" s="5"/>
     </row>
-    <row r="121" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B121" s="9">
         <v>43965</v>
       </c>
@@ -13063,7 +13073,7 @@
       <c r="AU121" s="6"/>
       <c r="AV121" s="5"/>
     </row>
-    <row r="122" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B122" s="9">
         <v>43966</v>
       </c>
@@ -13199,7 +13209,7 @@
       <c r="AU122" s="6"/>
       <c r="AV122" s="5"/>
     </row>
-    <row r="123" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B123" s="9">
         <v>43967</v>
       </c>
@@ -13333,7 +13343,7 @@
       <c r="AU123" s="6"/>
       <c r="AV123" s="5"/>
     </row>
-    <row r="124" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B124" s="9">
         <v>43968</v>
       </c>
@@ -13463,7 +13473,7 @@
       <c r="AU124" s="6"/>
       <c r="AV124" s="5"/>
     </row>
-    <row r="125" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B125" s="9">
         <v>43969</v>
       </c>
@@ -13597,7 +13607,7 @@
       </c>
       <c r="AV125" s="5"/>
     </row>
-    <row r="126" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B126" s="9">
         <v>43970</v>
       </c>
@@ -13733,7 +13743,7 @@
       <c r="AU126" s="6"/>
       <c r="AV126" s="5"/>
     </row>
-    <row r="127" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B127" s="9">
         <v>43971</v>
       </c>
@@ -13869,7 +13879,7 @@
       </c>
       <c r="AV127" s="5"/>
     </row>
-    <row r="128" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B128" s="9">
         <v>43972</v>
       </c>
@@ -14003,7 +14013,7 @@
       <c r="AU128" s="6"/>
       <c r="AV128" s="5"/>
     </row>
-    <row r="129" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B129" s="9">
         <v>43973</v>
       </c>
@@ -14135,7 +14145,7 @@
       <c r="AU129" s="6"/>
       <c r="AV129" s="5"/>
     </row>
-    <row r="130" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B130" s="9">
         <v>43974</v>
       </c>
@@ -14269,7 +14279,7 @@
       </c>
       <c r="AV130" s="5"/>
     </row>
-    <row r="131" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B131" s="9">
         <v>43975</v>
       </c>
@@ -14399,7 +14409,7 @@
       <c r="AU131" s="6"/>
       <c r="AV131" s="5"/>
     </row>
-    <row r="132" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B132" s="9">
         <v>43976</v>
       </c>
@@ -14531,7 +14541,7 @@
       <c r="AU132" s="6"/>
       <c r="AV132" s="5"/>
     </row>
-    <row r="133" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B133" s="9">
         <v>43977</v>
       </c>
@@ -14663,7 +14673,7 @@
       <c r="AU133" s="6"/>
       <c r="AV133" s="5"/>
     </row>
-    <row r="134" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B134" s="9">
         <v>43978</v>
       </c>
@@ -14791,7 +14801,7 @@
       <c r="AU134" s="6"/>
       <c r="AV134" s="5"/>
     </row>
-    <row r="135" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B135" s="9">
         <v>43979</v>
       </c>
@@ -14923,7 +14933,7 @@
       <c r="AU135" s="6"/>
       <c r="AV135" s="5"/>
     </row>
-    <row r="136" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B136" s="9">
         <v>43980</v>
       </c>
@@ -15057,7 +15067,7 @@
       <c r="AU136" s="6"/>
       <c r="AV136" s="5"/>
     </row>
-    <row r="137" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B137" s="9">
         <v>43981</v>
       </c>
@@ -15191,7 +15201,7 @@
       </c>
       <c r="AV137" s="5"/>
     </row>
-    <row r="138" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B138" s="9">
         <v>43982</v>
       </c>
@@ -15319,7 +15329,7 @@
       <c r="AU138" s="6"/>
       <c r="AV138" s="5"/>
     </row>
-    <row r="139" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B139" s="9">
         <v>43983</v>
       </c>
@@ -15449,7 +15459,7 @@
       <c r="AU139" s="6"/>
       <c r="AV139" s="5"/>
     </row>
-    <row r="140" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B140" s="9">
         <v>43984</v>
       </c>
@@ -15581,7 +15591,7 @@
       <c r="AU140" s="6"/>
       <c r="AV140" s="5"/>
     </row>
-    <row r="141" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B141" s="9">
         <v>43985</v>
       </c>
@@ -15711,7 +15721,7 @@
       <c r="AU141" s="6"/>
       <c r="AV141" s="5"/>
     </row>
-    <row r="142" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B142" s="9">
         <v>43986</v>
       </c>
@@ -15843,7 +15853,7 @@
       </c>
       <c r="AV142" s="5"/>
     </row>
-    <row r="143" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B143" s="9">
         <v>43987</v>
       </c>
@@ -15977,7 +15987,7 @@
       </c>
       <c r="AV143" s="5"/>
     </row>
-    <row r="144" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B144" s="9">
         <v>43988</v>
       </c>
@@ -16103,7 +16113,7 @@
       <c r="AU144" s="6"/>
       <c r="AV144" s="5"/>
     </row>
-    <row r="145" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B145" s="9">
         <v>43989</v>
       </c>
@@ -16233,7 +16243,7 @@
       <c r="AU145" s="6"/>
       <c r="AV145" s="5"/>
     </row>
-    <row r="146" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B146" s="9">
         <v>43990</v>
       </c>
@@ -16363,7 +16373,7 @@
       <c r="AU146" s="6"/>
       <c r="AV146" s="5"/>
     </row>
-    <row r="147" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B147" s="9">
         <v>43991</v>
       </c>
@@ -16495,7 +16505,7 @@
       <c r="AU147" s="6"/>
       <c r="AV147" s="5"/>
     </row>
-    <row r="148" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B148" s="9">
         <v>43992</v>
       </c>
@@ -16627,7 +16637,7 @@
       <c r="AU148" s="6"/>
       <c r="AV148" s="5"/>
     </row>
-    <row r="149" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B149" s="9">
         <v>43993</v>
       </c>
@@ -16755,7 +16765,7 @@
       <c r="AU149" s="6"/>
       <c r="AV149" s="5"/>
     </row>
-    <row r="150" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B150" s="9">
         <v>43994</v>
       </c>
@@ -16887,7 +16897,7 @@
       <c r="AU150" s="6"/>
       <c r="AV150" s="5"/>
     </row>
-    <row r="151" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B151" s="9">
         <v>43995</v>
       </c>
@@ -17013,7 +17023,7 @@
       <c r="AU151" s="6"/>
       <c r="AV151" s="5"/>
     </row>
-    <row r="152" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B152" s="9">
         <v>43996</v>
       </c>
@@ -17139,7 +17149,7 @@
       <c r="AU152" s="6"/>
       <c r="AV152" s="5"/>
     </row>
-    <row r="153" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B153" s="9">
         <v>43997</v>
       </c>
@@ -17271,7 +17281,7 @@
       <c r="AU153" s="6"/>
       <c r="AV153" s="5"/>
     </row>
-    <row r="154" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B154" s="9">
         <v>43998</v>
       </c>
@@ -17407,7 +17417,7 @@
       </c>
       <c r="AV154" s="5"/>
     </row>
-    <row r="155" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B155" s="9">
         <v>43999</v>
       </c>
@@ -17541,7 +17551,7 @@
       <c r="AU155" s="6"/>
       <c r="AV155" s="5"/>
     </row>
-    <row r="156" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B156" s="9">
         <v>44000</v>
       </c>
@@ -17677,7 +17687,7 @@
       <c r="AU156" s="6"/>
       <c r="AV156" s="5"/>
     </row>
-    <row r="157" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B157" s="9">
         <v>44001</v>
       </c>
@@ -17809,7 +17819,7 @@
       <c r="AU157" s="6"/>
       <c r="AV157" s="5"/>
     </row>
-    <row r="158" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B158" s="9">
         <v>44002</v>
       </c>
@@ -17937,7 +17947,7 @@
       <c r="AU158" s="6"/>
       <c r="AV158" s="5"/>
     </row>
-    <row r="159" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B159" s="9">
         <v>44003</v>
       </c>
@@ -18063,7 +18073,7 @@
       </c>
       <c r="AV159" s="5"/>
     </row>
-    <row r="160" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B160" s="9">
         <v>44004</v>
       </c>
@@ -18197,7 +18207,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B161" s="9">
         <v>44005</v>
       </c>
@@ -18333,7 +18343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="162" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B162" s="9">
         <v>44006</v>
       </c>
@@ -18467,7 +18477,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="163" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B163" s="9">
         <v>44007</v>
       </c>
@@ -18597,7 +18607,7 @@
       <c r="AU163" s="6"/>
       <c r="AV163" s="5"/>
     </row>
-    <row r="164" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B164" s="9">
         <v>44008</v>
       </c>
@@ -18731,7 +18741,7 @@
       <c r="AU164" s="6"/>
       <c r="AV164" s="5"/>
     </row>
-    <row r="165" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B165" s="9">
         <v>44009</v>
       </c>
@@ -18859,7 +18869,7 @@
       </c>
       <c r="AV165" s="5"/>
     </row>
-    <row r="166" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B166" s="9">
         <v>44010</v>
       </c>
@@ -18983,7 +18993,7 @@
       <c r="AU166" s="6"/>
       <c r="AV166" s="5"/>
     </row>
-    <row r="167" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B167" s="9">
         <v>44011</v>
       </c>
@@ -19113,7 +19123,7 @@
       <c r="AU167" s="6"/>
       <c r="AV167" s="5"/>
     </row>
-    <row r="168" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B168" s="9">
         <v>44012</v>
       </c>
@@ -19245,7 +19255,7 @@
       <c r="AU168" s="6"/>
       <c r="AV168" s="5"/>
     </row>
-    <row r="169" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B169" s="9">
         <v>44013</v>
       </c>
@@ -19377,7 +19387,7 @@
       <c r="AU169" s="6"/>
       <c r="AV169" s="5"/>
     </row>
-    <row r="170" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B170" s="9">
         <v>44014</v>
       </c>
@@ -19513,7 +19523,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="171" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B171" s="9">
         <v>44015</v>
       </c>
@@ -19645,7 +19655,7 @@
       <c r="AU171" s="6"/>
       <c r="AV171" s="5"/>
     </row>
-    <row r="172" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B172" s="9">
         <v>44016</v>
       </c>
@@ -19769,7 +19779,7 @@
       <c r="AU172" s="6"/>
       <c r="AV172" s="5"/>
     </row>
-    <row r="173" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B173" s="9">
         <v>44017</v>
       </c>
@@ -19895,7 +19905,7 @@
       </c>
       <c r="AV173" s="5"/>
     </row>
-    <row r="174" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B174" s="9">
         <v>44018</v>
       </c>
@@ -20027,7 +20037,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B175" s="9">
         <v>44019</v>
       </c>
@@ -20159,7 +20169,7 @@
       <c r="AU175" s="6"/>
       <c r="AV175" s="5"/>
     </row>
-    <row r="176" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B176" s="9">
         <v>44020</v>
       </c>
@@ -20293,7 +20303,7 @@
       <c r="AU176" s="6"/>
       <c r="AV176" s="5"/>
     </row>
-    <row r="177" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B177" s="9">
         <v>44021</v>
       </c>
@@ -20429,7 +20439,7 @@
       </c>
       <c r="AV177" s="5"/>
     </row>
-    <row r="178" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B178" s="9">
         <v>44022</v>
       </c>
@@ -20561,7 +20571,7 @@
       <c r="AU178" s="6"/>
       <c r="AV178" s="5"/>
     </row>
-    <row r="179" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B179" s="9">
         <v>44023</v>
       </c>
@@ -20687,7 +20697,7 @@
       </c>
       <c r="AV179" s="5"/>
     </row>
-    <row r="180" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B180" s="9">
         <v>44024</v>
       </c>
@@ -20811,7 +20821,7 @@
       </c>
       <c r="AV180" s="5"/>
     </row>
-    <row r="181" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B181" s="9">
         <v>44025</v>
       </c>
@@ -20939,7 +20949,7 @@
       <c r="AU181" s="6"/>
       <c r="AV181" s="5"/>
     </row>
-    <row r="182" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B182" s="9">
         <v>44026</v>
       </c>
@@ -21067,7 +21077,7 @@
       <c r="AU182" s="6"/>
       <c r="AV182" s="5"/>
     </row>
-    <row r="183" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B183" s="9">
         <v>44027</v>
       </c>
@@ -21199,7 +21209,7 @@
       <c r="AU183" s="6"/>
       <c r="AV183" s="5"/>
     </row>
-    <row r="184" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B184" s="9">
         <v>44028</v>
       </c>
@@ -21331,7 +21341,7 @@
       </c>
       <c r="AV184" s="5"/>
     </row>
-    <row r="185" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B185" s="9">
         <v>44029</v>
       </c>
@@ -21467,7 +21477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="186" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B186" s="9">
         <v>44030</v>
       </c>
@@ -21595,7 +21605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B187" s="9">
         <v>44031</v>
       </c>
@@ -21715,7 +21725,7 @@
       <c r="AU187" s="6"/>
       <c r="AV187" s="5"/>
     </row>
-    <row r="188" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B188" s="9">
         <v>44032</v>
       </c>
@@ -21843,7 +21853,7 @@
       </c>
       <c r="AV188" s="5"/>
     </row>
-    <row r="189" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B189" s="9">
         <v>44033</v>
       </c>
@@ -21975,7 +21985,7 @@
       </c>
       <c r="AV189" s="5"/>
     </row>
-    <row r="190" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B190" s="9">
         <v>44034</v>
       </c>
@@ -22111,7 +22121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="191" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B191" s="9">
         <v>44035</v>
       </c>
@@ -22245,7 +22255,7 @@
       </c>
       <c r="AV191" s="5"/>
     </row>
-    <row r="192" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B192" s="9">
         <v>44036</v>
       </c>
@@ -22383,7 +22393,7 @@
       </c>
       <c r="AV192" s="5"/>
     </row>
-    <row r="193" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B193" s="9">
         <v>44037</v>
       </c>
@@ -22503,7 +22513,7 @@
       </c>
       <c r="AV193" s="5"/>
     </row>
-    <row r="194" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B194" s="9">
         <v>44038</v>
       </c>
@@ -22625,7 +22635,7 @@
       <c r="AU194" s="6"/>
       <c r="AV194" s="5"/>
     </row>
-    <row r="195" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B195" s="9">
         <v>44039</v>
       </c>
@@ -22757,7 +22767,7 @@
       <c r="AU195" s="6"/>
       <c r="AV195" s="5"/>
     </row>
-    <row r="196" spans="2:48" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B196" s="9">
         <v>44040</v>
       </c>
@@ -22891,6 +22901,3928 @@
       </c>
       <c r="AV196" s="4">
         <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B197" s="13">
+        <v>44041</v>
+      </c>
+      <c r="C197">
+        <v>196</v>
+      </c>
+      <c r="E197" s="11">
+        <v>827509</v>
+      </c>
+      <c r="F197" s="12">
+        <v>302042</v>
+      </c>
+      <c r="G197" s="14">
+        <v>282641</v>
+      </c>
+      <c r="H197">
+        <v>246776</v>
+      </c>
+      <c r="I197" s="14">
+        <v>228924</v>
+      </c>
+      <c r="J197">
+        <v>208546</v>
+      </c>
+      <c r="K197" s="14">
+        <v>209211</v>
+      </c>
+      <c r="L197">
+        <v>79782</v>
+      </c>
+      <c r="M197" s="14">
+        <v>67518</v>
+      </c>
+      <c r="N197">
+        <v>69078</v>
+      </c>
+      <c r="O197" s="14">
+        <v>67335</v>
+      </c>
+      <c r="P197">
+        <v>53621</v>
+      </c>
+      <c r="Q197" s="14">
+        <v>50613</v>
+      </c>
+      <c r="R197">
+        <v>48235</v>
+      </c>
+      <c r="S197" s="14">
+        <v>44416</v>
+      </c>
+      <c r="T197">
+        <v>34802</v>
+      </c>
+      <c r="U197" s="14">
+        <v>25942</v>
+      </c>
+      <c r="V197">
+        <v>24892</v>
+      </c>
+      <c r="W197" s="14">
+        <v>23947</v>
+      </c>
+      <c r="X197">
+        <v>20850</v>
+      </c>
+      <c r="Y197" s="14">
+        <v>16093</v>
+      </c>
+      <c r="Z197">
+        <v>13634</v>
+      </c>
+      <c r="AA197" s="14">
+        <v>11155</v>
+      </c>
+      <c r="AB197">
+        <v>11127</v>
+      </c>
+      <c r="AC197" s="14">
+        <v>9172</v>
+      </c>
+      <c r="AD197">
+        <v>7414</v>
+      </c>
+      <c r="AE197" s="14">
+        <v>6533</v>
+      </c>
+      <c r="AF197">
+        <v>4993</v>
+      </c>
+      <c r="AG197" s="14">
+        <v>5105</v>
+      </c>
+      <c r="AH197">
+        <v>4465</v>
+      </c>
+      <c r="AI197" s="14">
+        <v>4336</v>
+      </c>
+      <c r="AJ197">
+        <v>3016</v>
+      </c>
+      <c r="AK197" s="14">
+        <v>2245</v>
+      </c>
+      <c r="AL197">
+        <v>2115</v>
+      </c>
+      <c r="AM197" s="14">
+        <v>2042</v>
+      </c>
+      <c r="AN197">
+        <v>2043</v>
+      </c>
+      <c r="AO197" s="14">
+        <v>1861</v>
+      </c>
+      <c r="AP197">
+        <v>1224</v>
+      </c>
+      <c r="AQ197" s="14">
+        <v>1080</v>
+      </c>
+      <c r="AR197">
+        <v>918</v>
+      </c>
+      <c r="AS197" s="14">
+        <v>720</v>
+      </c>
+      <c r="AT197">
+        <v>699</v>
+      </c>
+      <c r="AU197" s="14">
+        <v>120</v>
+      </c>
+      <c r="AV197">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B198" s="13">
+        <v>44042</v>
+      </c>
+      <c r="C198">
+        <v>197</v>
+      </c>
+      <c r="E198" s="11">
+        <v>832993</v>
+      </c>
+      <c r="F198" s="12">
+        <v>302888</v>
+      </c>
+      <c r="G198" s="14">
+        <v>285430</v>
+      </c>
+      <c r="H198">
+        <v>247158</v>
+      </c>
+      <c r="I198" s="14">
+        <v>229891</v>
+      </c>
+      <c r="J198">
+        <v>209535</v>
+      </c>
+      <c r="K198" s="14">
+        <v>210465</v>
+      </c>
+      <c r="L198">
+        <v>80100</v>
+      </c>
+      <c r="M198" s="14">
+        <v>67665</v>
+      </c>
+      <c r="N198">
+        <v>70300</v>
+      </c>
+      <c r="O198" s="14">
+        <v>68006</v>
+      </c>
+      <c r="P198">
+        <v>53963</v>
+      </c>
+      <c r="Q198" s="14">
+        <v>50868</v>
+      </c>
+      <c r="R198">
+        <v>49591</v>
+      </c>
+      <c r="S198" s="14">
+        <v>45031</v>
+      </c>
+      <c r="T198">
+        <v>35022</v>
+      </c>
+      <c r="U198" s="14">
+        <v>26027</v>
+      </c>
+      <c r="V198">
+        <v>25213</v>
+      </c>
+      <c r="W198" s="14">
+        <v>24343</v>
+      </c>
+      <c r="X198">
+        <v>20955</v>
+      </c>
+      <c r="Y198" s="14">
+        <v>16371</v>
+      </c>
+      <c r="Z198">
+        <v>13725</v>
+      </c>
+      <c r="AA198" s="14">
+        <v>11420</v>
+      </c>
+      <c r="AB198">
+        <v>11444</v>
+      </c>
+      <c r="AC198" s="14">
+        <v>9208</v>
+      </c>
+      <c r="AD198">
+        <v>7423</v>
+      </c>
+      <c r="AE198" s="14">
+        <v>6616</v>
+      </c>
+      <c r="AF198">
+        <v>5071</v>
+      </c>
+      <c r="AG198" s="14">
+        <v>5197</v>
+      </c>
+      <c r="AH198">
+        <v>4484</v>
+      </c>
+      <c r="AI198" s="14">
+        <v>4401</v>
+      </c>
+      <c r="AJ198">
+        <v>3016</v>
+      </c>
+      <c r="AK198" s="14">
+        <v>2265</v>
+      </c>
+      <c r="AL198">
+        <v>2139</v>
+      </c>
+      <c r="AM198" s="14">
+        <v>2051</v>
+      </c>
+      <c r="AN198">
+        <v>2062</v>
+      </c>
+      <c r="AO198" s="14">
+        <v>1872</v>
+      </c>
+      <c r="AP198">
+        <v>1228</v>
+      </c>
+      <c r="AQ198" s="14">
+        <v>1090</v>
+      </c>
+      <c r="AR198">
+        <v>922</v>
+      </c>
+      <c r="AS198" s="14">
+        <v>814</v>
+      </c>
+      <c r="AT198">
+        <v>699</v>
+      </c>
+      <c r="AU198" s="14">
+        <v>120</v>
+      </c>
+      <c r="AV198">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="199" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B199" s="13">
+        <v>44043</v>
+      </c>
+      <c r="C199">
+        <v>198</v>
+      </c>
+      <c r="E199" s="11">
+        <v>838461</v>
+      </c>
+      <c r="F199" s="12">
+        <v>303768</v>
+      </c>
+      <c r="G199" s="14">
+        <v>288522</v>
+      </c>
+      <c r="H199">
+        <v>247537</v>
+      </c>
+      <c r="I199" s="14">
+        <v>230873</v>
+      </c>
+      <c r="J199">
+        <v>210399</v>
+      </c>
+      <c r="K199" s="14">
+        <v>213093</v>
+      </c>
+      <c r="L199">
+        <v>80422</v>
+      </c>
+      <c r="M199" s="14">
+        <v>67808</v>
+      </c>
+      <c r="N199">
+        <v>71404</v>
+      </c>
+      <c r="O199" s="14">
+        <v>68751</v>
+      </c>
+      <c r="P199">
+        <v>54301</v>
+      </c>
+      <c r="Q199" s="14">
+        <v>51072</v>
+      </c>
+      <c r="R199">
+        <v>50886</v>
+      </c>
+      <c r="S199" s="14">
+        <v>45688</v>
+      </c>
+      <c r="T199">
+        <v>35232</v>
+      </c>
+      <c r="U199" s="14">
+        <v>26065</v>
+      </c>
+      <c r="V199">
+        <v>25552</v>
+      </c>
+      <c r="W199" s="14">
+        <v>24733</v>
+      </c>
+      <c r="X199">
+        <v>21130</v>
+      </c>
+      <c r="Y199" s="14">
+        <v>16574</v>
+      </c>
+      <c r="Z199">
+        <v>13789</v>
+      </c>
+      <c r="AA199" s="14">
+        <v>11690</v>
+      </c>
+      <c r="AB199">
+        <v>11876</v>
+      </c>
+      <c r="AC199" s="14">
+        <v>9240</v>
+      </c>
+      <c r="AD199">
+        <v>7432</v>
+      </c>
+      <c r="AE199" s="14">
+        <v>6695</v>
+      </c>
+      <c r="AF199">
+        <v>5139</v>
+      </c>
+      <c r="AG199" s="14">
+        <v>5276</v>
+      </c>
+      <c r="AH199">
+        <v>4505</v>
+      </c>
+      <c r="AI199" s="14">
+        <v>4477</v>
+      </c>
+      <c r="AJ199">
+        <v>3073</v>
+      </c>
+      <c r="AK199" s="14">
+        <v>2292</v>
+      </c>
+      <c r="AL199">
+        <v>2156</v>
+      </c>
+      <c r="AM199" s="14">
+        <v>2064</v>
+      </c>
+      <c r="AN199">
+        <v>2075</v>
+      </c>
+      <c r="AO199" s="14">
+        <v>1885</v>
+      </c>
+      <c r="AP199">
+        <v>1231</v>
+      </c>
+      <c r="AQ199" s="14">
+        <v>1114</v>
+      </c>
+      <c r="AR199">
+        <v>925</v>
+      </c>
+      <c r="AS199" s="14">
+        <v>824</v>
+      </c>
+      <c r="AT199">
+        <v>699</v>
+      </c>
+      <c r="AU199" s="14">
+        <v>120</v>
+      </c>
+      <c r="AV199">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B200" s="13">
+        <v>44044</v>
+      </c>
+      <c r="C200">
+        <v>199</v>
+      </c>
+      <c r="E200" s="11">
+        <v>843890</v>
+      </c>
+      <c r="F200" s="12">
+        <v>304539</v>
+      </c>
+      <c r="G200" s="14">
+        <v>288522</v>
+      </c>
+      <c r="H200">
+        <v>247832</v>
+      </c>
+      <c r="I200" s="14">
+        <v>231869</v>
+      </c>
+      <c r="J200">
+        <v>211005</v>
+      </c>
+      <c r="K200" s="14">
+        <v>213031</v>
+      </c>
+      <c r="L200">
+        <v>80422</v>
+      </c>
+      <c r="M200" s="14">
+        <v>67946</v>
+      </c>
+      <c r="N200">
+        <v>72609</v>
+      </c>
+      <c r="O200" s="14">
+        <v>69402</v>
+      </c>
+      <c r="P200">
+        <v>54732</v>
+      </c>
+      <c r="Q200" s="14">
+        <v>51310</v>
+      </c>
+      <c r="R200">
+        <v>52111</v>
+      </c>
+      <c r="S200" s="14">
+        <v>46346</v>
+      </c>
+      <c r="T200">
+        <v>35412</v>
+      </c>
+      <c r="U200" s="14">
+        <v>26109</v>
+      </c>
+      <c r="V200">
+        <v>25882</v>
+      </c>
+      <c r="W200" s="14">
+        <v>25113</v>
+      </c>
+      <c r="X200">
+        <v>21212</v>
+      </c>
+      <c r="Y200" s="14">
+        <v>16699</v>
+      </c>
+      <c r="Z200">
+        <v>13789</v>
+      </c>
+      <c r="AA200" s="14">
+        <v>11836</v>
+      </c>
+      <c r="AB200">
+        <v>11876</v>
+      </c>
+      <c r="AC200" s="14">
+        <v>9253</v>
+      </c>
+      <c r="AD200">
+        <v>7443</v>
+      </c>
+      <c r="AE200" s="14">
+        <v>6793</v>
+      </c>
+      <c r="AF200">
+        <v>5224</v>
+      </c>
+      <c r="AG200" s="14">
+        <v>5396</v>
+      </c>
+      <c r="AH200">
+        <v>4526</v>
+      </c>
+      <c r="AI200" s="14">
+        <v>4587</v>
+      </c>
+      <c r="AJ200">
+        <v>3198</v>
+      </c>
+      <c r="AK200" s="14">
+        <v>2337</v>
+      </c>
+      <c r="AL200">
+        <v>2171</v>
+      </c>
+      <c r="AM200" s="14">
+        <v>2072</v>
+      </c>
+      <c r="AN200">
+        <v>2093</v>
+      </c>
+      <c r="AO200" s="14">
+        <v>1893</v>
+      </c>
+      <c r="AP200">
+        <v>1238</v>
+      </c>
+      <c r="AQ200" s="14">
+        <v>1124</v>
+      </c>
+      <c r="AR200">
+        <v>925</v>
+      </c>
+      <c r="AS200" s="14">
+        <v>845</v>
+      </c>
+      <c r="AT200">
+        <v>699</v>
+      </c>
+      <c r="AU200" s="14">
+        <v>120</v>
+      </c>
+      <c r="AV200">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B201" s="13">
+        <v>44045</v>
+      </c>
+      <c r="C201">
+        <v>200</v>
+      </c>
+      <c r="E201" s="11">
+        <v>849277</v>
+      </c>
+      <c r="F201" s="12">
+        <v>305282</v>
+      </c>
+      <c r="G201" s="14">
+        <v>288522</v>
+      </c>
+      <c r="H201">
+        <v>248070</v>
+      </c>
+      <c r="I201" s="14">
+        <v>232856</v>
+      </c>
+      <c r="J201">
+        <v>211220</v>
+      </c>
+      <c r="K201" s="14">
+        <v>213028</v>
+      </c>
+      <c r="L201">
+        <v>80422</v>
+      </c>
+      <c r="M201" s="14">
+        <v>68067</v>
+      </c>
+      <c r="N201">
+        <v>73761</v>
+      </c>
+      <c r="O201" s="14">
+        <v>69849</v>
+      </c>
+      <c r="P201">
+        <v>55098</v>
+      </c>
+      <c r="Q201" s="14">
+        <v>51463</v>
+      </c>
+      <c r="R201">
+        <v>53186</v>
+      </c>
+      <c r="S201" s="14">
+        <v>46894</v>
+      </c>
+      <c r="T201">
+        <v>35550</v>
+      </c>
+      <c r="U201" s="14">
+        <v>26162</v>
+      </c>
+      <c r="V201">
+        <v>26193</v>
+      </c>
+      <c r="W201" s="14">
+        <v>25362</v>
+      </c>
+      <c r="X201">
+        <v>21304</v>
+      </c>
+      <c r="Y201" s="14">
+        <v>16800</v>
+      </c>
+      <c r="Z201">
+        <v>13789</v>
+      </c>
+      <c r="AA201" s="14">
+        <v>11955</v>
+      </c>
+      <c r="AB201">
+        <v>12296</v>
+      </c>
+      <c r="AC201" s="14">
+        <v>9268</v>
+      </c>
+      <c r="AD201">
+        <v>7453</v>
+      </c>
+      <c r="AE201" s="14">
+        <v>6855</v>
+      </c>
+      <c r="AF201">
+        <v>5260</v>
+      </c>
+      <c r="AG201" s="14">
+        <v>5519</v>
+      </c>
+      <c r="AH201">
+        <v>4535</v>
+      </c>
+      <c r="AI201" s="14">
+        <v>4662</v>
+      </c>
+      <c r="AJ201">
+        <v>3258</v>
+      </c>
+      <c r="AK201" s="14">
+        <v>2344</v>
+      </c>
+      <c r="AL201">
+        <v>2180</v>
+      </c>
+      <c r="AM201" s="14">
+        <v>2079</v>
+      </c>
+      <c r="AN201">
+        <v>2110</v>
+      </c>
+      <c r="AO201" s="14">
+        <v>1907</v>
+      </c>
+      <c r="AP201">
+        <v>1243</v>
+      </c>
+      <c r="AQ201" s="14">
+        <v>1150</v>
+      </c>
+      <c r="AR201">
+        <v>925</v>
+      </c>
+      <c r="AS201" s="14">
+        <v>860</v>
+      </c>
+      <c r="AT201">
+        <v>699</v>
+      </c>
+      <c r="AU201" s="14">
+        <v>120</v>
+      </c>
+      <c r="AV201">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B202" s="13">
+        <v>44046</v>
+      </c>
+      <c r="C202">
+        <v>201</v>
+      </c>
+      <c r="E202" s="11">
+        <v>854641</v>
+      </c>
+      <c r="F202" s="12">
+        <v>306214</v>
+      </c>
+      <c r="G202" s="14">
+        <v>297054</v>
+      </c>
+      <c r="H202">
+        <v>248229</v>
+      </c>
+      <c r="I202" s="14">
+        <v>233851</v>
+      </c>
+      <c r="J202">
+        <v>212111</v>
+      </c>
+      <c r="K202" s="14">
+        <v>212884</v>
+      </c>
+      <c r="L202">
+        <v>81012</v>
+      </c>
+      <c r="M202" s="14">
+        <v>68166</v>
+      </c>
+      <c r="N202">
+        <v>74781</v>
+      </c>
+      <c r="O202" s="14">
+        <v>70314</v>
+      </c>
+      <c r="P202">
+        <v>55470</v>
+      </c>
+      <c r="Q202" s="14">
+        <v>51569</v>
+      </c>
+      <c r="R202">
+        <v>54009</v>
+      </c>
+      <c r="S202" s="14">
+        <v>47469</v>
+      </c>
+      <c r="T202">
+        <v>35616</v>
+      </c>
+      <c r="U202" s="14">
+        <v>26208</v>
+      </c>
+      <c r="V202">
+        <v>26451</v>
+      </c>
+      <c r="W202" s="14">
+        <v>25482</v>
+      </c>
+      <c r="X202">
+        <v>21385</v>
+      </c>
+      <c r="Y202" s="14">
+        <v>17008</v>
+      </c>
+      <c r="Z202">
+        <v>13996</v>
+      </c>
+      <c r="AA202" s="14">
+        <v>12159</v>
+      </c>
+      <c r="AB202">
+        <v>12462</v>
+      </c>
+      <c r="AC202" s="14">
+        <v>9334</v>
+      </c>
+      <c r="AD202">
+        <v>7466</v>
+      </c>
+      <c r="AE202" s="14">
+        <v>6864</v>
+      </c>
+      <c r="AF202">
+        <v>5294</v>
+      </c>
+      <c r="AG202" s="14">
+        <v>5620</v>
+      </c>
+      <c r="AH202">
+        <v>4544</v>
+      </c>
+      <c r="AI202" s="14">
+        <v>4737</v>
+      </c>
+      <c r="AJ202">
+        <v>3301</v>
+      </c>
+      <c r="AK202" s="14">
+        <v>2354</v>
+      </c>
+      <c r="AL202">
+        <v>2181</v>
+      </c>
+      <c r="AM202" s="14">
+        <v>2080</v>
+      </c>
+      <c r="AN202">
+        <v>2120</v>
+      </c>
+      <c r="AO202" s="14">
+        <v>1915</v>
+      </c>
+      <c r="AP202">
+        <v>1246</v>
+      </c>
+      <c r="AQ202" s="14">
+        <v>1155</v>
+      </c>
+      <c r="AR202">
+        <v>937</v>
+      </c>
+      <c r="AS202" s="14">
+        <v>874</v>
+      </c>
+      <c r="AT202">
+        <v>699</v>
+      </c>
+      <c r="AU202" s="14">
+        <v>121</v>
+      </c>
+      <c r="AV202">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="203" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B203" s="13">
+        <v>44047</v>
+      </c>
+      <c r="C203">
+        <v>202</v>
+      </c>
+      <c r="E203" s="11">
+        <v>859762</v>
+      </c>
+      <c r="F203" s="12">
+        <v>306888</v>
+      </c>
+      <c r="G203" s="14">
+        <v>302814</v>
+      </c>
+      <c r="H203">
+        <v>248419</v>
+      </c>
+      <c r="I203" s="14">
+        <v>234934</v>
+      </c>
+      <c r="J203">
+        <v>212828</v>
+      </c>
+      <c r="K203" s="14">
+        <v>216193</v>
+      </c>
+      <c r="L203">
+        <v>81181</v>
+      </c>
+      <c r="M203" s="14">
+        <v>68250</v>
+      </c>
+      <c r="N203">
+        <v>75880</v>
+      </c>
+      <c r="O203" s="14">
+        <v>70648</v>
+      </c>
+      <c r="P203">
+        <v>55955</v>
+      </c>
+      <c r="Q203" s="14">
+        <v>51681</v>
+      </c>
+      <c r="R203">
+        <v>55241</v>
+      </c>
+      <c r="S203" s="14">
+        <v>48149</v>
+      </c>
+      <c r="T203">
+        <v>35746</v>
+      </c>
+      <c r="U203" s="14">
+        <v>26253</v>
+      </c>
+      <c r="V203">
+        <v>26738</v>
+      </c>
+      <c r="W203" s="14">
+        <v>25814</v>
+      </c>
+      <c r="X203">
+        <v>21481</v>
+      </c>
+      <c r="Y203" s="14">
+        <v>17286</v>
+      </c>
+      <c r="Z203">
+        <v>14073</v>
+      </c>
+      <c r="AA203" s="14">
+        <v>12414</v>
+      </c>
+      <c r="AB203">
+        <v>12856</v>
+      </c>
+      <c r="AC203" s="14">
+        <v>9362</v>
+      </c>
+      <c r="AD203">
+        <v>7483</v>
+      </c>
+      <c r="AE203" s="14">
+        <v>6917</v>
+      </c>
+      <c r="AF203">
+        <v>5318</v>
+      </c>
+      <c r="AG203" s="14">
+        <v>5750</v>
+      </c>
+      <c r="AH203">
+        <v>4553</v>
+      </c>
+      <c r="AI203" s="14">
+        <v>4855</v>
+      </c>
+      <c r="AJ203">
+        <v>3361</v>
+      </c>
+      <c r="AK203" s="14">
+        <v>2368</v>
+      </c>
+      <c r="AL203">
+        <v>2190</v>
+      </c>
+      <c r="AM203" s="14">
+        <v>2091</v>
+      </c>
+      <c r="AN203">
+        <v>2137</v>
+      </c>
+      <c r="AO203" s="14">
+        <v>1918</v>
+      </c>
+      <c r="AP203">
+        <v>1249</v>
+      </c>
+      <c r="AQ203" s="14">
+        <v>1180</v>
+      </c>
+      <c r="AR203">
+        <v>939</v>
+      </c>
+      <c r="AS203" s="14">
+        <v>890</v>
+      </c>
+      <c r="AT203">
+        <v>699</v>
+      </c>
+      <c r="AU203" s="14">
+        <v>123</v>
+      </c>
+      <c r="AV203">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="204" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B204" s="13">
+        <v>44048</v>
+      </c>
+      <c r="C204">
+        <v>203</v>
+      </c>
+      <c r="E204" s="11">
+        <v>864948</v>
+      </c>
+      <c r="F204" s="12">
+        <v>307780</v>
+      </c>
+      <c r="G204" s="14">
+        <v>305767</v>
+      </c>
+      <c r="H204">
+        <v>248803</v>
+      </c>
+      <c r="I204" s="14">
+        <v>236112</v>
+      </c>
+      <c r="J204">
+        <v>214113</v>
+      </c>
+      <c r="K204" s="14">
+        <v>216106</v>
+      </c>
+      <c r="L204">
+        <v>81540</v>
+      </c>
+      <c r="M204" s="14">
+        <v>68376</v>
+      </c>
+      <c r="N204">
+        <v>77169</v>
+      </c>
+      <c r="O204" s="14">
+        <v>71158</v>
+      </c>
+      <c r="P204">
+        <v>56381</v>
+      </c>
+      <c r="Q204" s="14">
+        <v>51848</v>
+      </c>
+      <c r="R204">
+        <v>56550</v>
+      </c>
+      <c r="S204" s="14">
+        <v>48789</v>
+      </c>
+      <c r="T204">
+        <v>35927</v>
+      </c>
+      <c r="U204" s="14">
+        <v>26303</v>
+      </c>
+      <c r="V204">
+        <v>27033</v>
+      </c>
+      <c r="W204" s="14">
+        <v>26222</v>
+      </c>
+      <c r="X204">
+        <v>21566</v>
+      </c>
+      <c r="Y204" s="14">
+        <v>17529</v>
+      </c>
+      <c r="Z204">
+        <v>14185</v>
+      </c>
+      <c r="AA204" s="14">
+        <v>12717</v>
+      </c>
+      <c r="AB204">
+        <v>13138</v>
+      </c>
+      <c r="AC204" s="14">
+        <v>9409</v>
+      </c>
+      <c r="AD204">
+        <v>7512</v>
+      </c>
+      <c r="AE204" s="14">
+        <v>7007</v>
+      </c>
+      <c r="AF204">
+        <v>5376</v>
+      </c>
+      <c r="AG204" s="14">
+        <v>5889</v>
+      </c>
+      <c r="AH204">
+        <v>4564</v>
+      </c>
+      <c r="AI204" s="14">
+        <v>4974</v>
+      </c>
+      <c r="AJ204">
+        <v>3411</v>
+      </c>
+      <c r="AK204" s="14">
+        <v>2417</v>
+      </c>
+      <c r="AL204">
+        <v>2208</v>
+      </c>
+      <c r="AM204" s="14">
+        <v>2113</v>
+      </c>
+      <c r="AN204">
+        <v>2147</v>
+      </c>
+      <c r="AO204" s="14">
+        <v>1926</v>
+      </c>
+      <c r="AP204">
+        <v>1257</v>
+      </c>
+      <c r="AQ204" s="14">
+        <v>1195</v>
+      </c>
+      <c r="AR204">
+        <v>939</v>
+      </c>
+      <c r="AS204" s="14">
+        <v>926</v>
+      </c>
+      <c r="AT204">
+        <v>699</v>
+      </c>
+      <c r="AU204" s="14">
+        <v>125</v>
+      </c>
+      <c r="AV204">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="205" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B205" s="13">
+        <v>44049</v>
+      </c>
+      <c r="C205">
+        <v>204</v>
+      </c>
+      <c r="E205" s="11">
+        <v>870187</v>
+      </c>
+      <c r="F205" s="12">
+        <v>308731</v>
+      </c>
+      <c r="G205" s="14">
+        <v>309855</v>
+      </c>
+      <c r="H205">
+        <v>249204</v>
+      </c>
+      <c r="I205" s="14">
+        <v>237265</v>
+      </c>
+      <c r="J205">
+        <v>215039</v>
+      </c>
+      <c r="K205" s="14">
+        <v>218763</v>
+      </c>
+      <c r="L205">
+        <v>81967</v>
+      </c>
+      <c r="M205" s="14">
+        <v>68503</v>
+      </c>
+      <c r="N205">
+        <v>78515</v>
+      </c>
+      <c r="O205" s="14">
+        <v>72016</v>
+      </c>
+      <c r="P205">
+        <v>56982</v>
+      </c>
+      <c r="Q205" s="14">
+        <v>52061</v>
+      </c>
+      <c r="R205">
+        <v>57895</v>
+      </c>
+      <c r="S205" s="14">
+        <v>49515</v>
+      </c>
+      <c r="T205">
+        <v>36108</v>
+      </c>
+      <c r="U205" s="14">
+        <v>26372</v>
+      </c>
+      <c r="V205">
+        <v>27332</v>
+      </c>
+      <c r="W205" s="14">
+        <v>26628</v>
+      </c>
+      <c r="X205">
+        <v>21696</v>
+      </c>
+      <c r="Y205" s="14">
+        <v>17731</v>
+      </c>
+      <c r="Z205">
+        <v>14306</v>
+      </c>
+      <c r="AA205" s="14">
+        <v>13014</v>
+      </c>
+      <c r="AB205">
+        <v>13396</v>
+      </c>
+      <c r="AC205" s="14">
+        <v>9468</v>
+      </c>
+      <c r="AD205">
+        <v>7532</v>
+      </c>
+      <c r="AE205" s="14">
+        <v>7073</v>
+      </c>
+      <c r="AF205">
+        <v>5404</v>
+      </c>
+      <c r="AG205" s="14">
+        <v>6016</v>
+      </c>
+      <c r="AH205">
+        <v>4597</v>
+      </c>
+      <c r="AI205" s="14">
+        <v>5123</v>
+      </c>
+      <c r="AJ205">
+        <v>3480</v>
+      </c>
+      <c r="AK205" s="14">
+        <v>2480</v>
+      </c>
+      <c r="AL205">
+        <v>2223</v>
+      </c>
+      <c r="AM205" s="14">
+        <v>2124</v>
+      </c>
+      <c r="AN205">
+        <v>2171</v>
+      </c>
+      <c r="AO205" s="14">
+        <v>1932</v>
+      </c>
+      <c r="AP205">
+        <v>1275</v>
+      </c>
+      <c r="AQ205" s="14">
+        <v>1208</v>
+      </c>
+      <c r="AR205">
+        <v>944</v>
+      </c>
+      <c r="AS205" s="14">
+        <v>946</v>
+      </c>
+      <c r="AT205">
+        <v>699</v>
+      </c>
+      <c r="AU205" s="14">
+        <v>125</v>
+      </c>
+      <c r="AV205">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="206" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B206" s="13">
+        <v>44050</v>
+      </c>
+      <c r="C206">
+        <v>205</v>
+      </c>
+      <c r="E206" s="11">
+        <v>875378</v>
+      </c>
+      <c r="F206" s="12">
+        <v>309602</v>
+      </c>
+      <c r="G206" s="14">
+        <v>314362</v>
+      </c>
+      <c r="H206">
+        <v>249756</v>
+      </c>
+      <c r="I206" s="14">
+        <v>238450</v>
+      </c>
+      <c r="J206">
+        <v>216196</v>
+      </c>
+      <c r="K206" s="14">
+        <v>222477</v>
+      </c>
+      <c r="L206">
+        <v>82323</v>
+      </c>
+      <c r="M206" s="14">
+        <v>68614</v>
+      </c>
+      <c r="N206">
+        <v>80018</v>
+      </c>
+      <c r="O206" s="14">
+        <v>72784</v>
+      </c>
+      <c r="P206">
+        <v>57501</v>
+      </c>
+      <c r="Q206" s="14">
+        <v>52351</v>
+      </c>
+      <c r="R206">
+        <v>59273</v>
+      </c>
+      <c r="S206" s="14">
+        <v>50324</v>
+      </c>
+      <c r="T206">
+        <v>36269</v>
+      </c>
+      <c r="U206" s="14">
+        <v>26470</v>
+      </c>
+      <c r="V206">
+        <v>27608</v>
+      </c>
+      <c r="W206" s="14">
+        <v>26990</v>
+      </c>
+      <c r="X206">
+        <v>21837</v>
+      </c>
+      <c r="Y206" s="14">
+        <v>18060</v>
+      </c>
+      <c r="Z206">
+        <v>14442</v>
+      </c>
+      <c r="AA206" s="14">
+        <v>13209</v>
+      </c>
+      <c r="AB206">
+        <v>13687</v>
+      </c>
+      <c r="AC206" s="14">
+        <v>9551</v>
+      </c>
+      <c r="AD206">
+        <v>7554</v>
+      </c>
+      <c r="AE206" s="14">
+        <v>7113</v>
+      </c>
+      <c r="AF206">
+        <v>5466</v>
+      </c>
+      <c r="AG206" s="14">
+        <v>6151</v>
+      </c>
+      <c r="AH206">
+        <v>4621</v>
+      </c>
+      <c r="AI206" s="14">
+        <v>5270</v>
+      </c>
+      <c r="AJ206">
+        <v>3549</v>
+      </c>
+      <c r="AK206" s="14">
+        <v>2523</v>
+      </c>
+      <c r="AL206">
+        <v>2233</v>
+      </c>
+      <c r="AM206" s="14">
+        <v>2133</v>
+      </c>
+      <c r="AN206">
+        <v>2194</v>
+      </c>
+      <c r="AO206" s="14">
+        <v>1952</v>
+      </c>
+      <c r="AP206">
+        <v>1281</v>
+      </c>
+      <c r="AQ206" s="14">
+        <v>1222</v>
+      </c>
+      <c r="AR206">
+        <v>955</v>
+      </c>
+      <c r="AS206" s="14">
+        <v>995</v>
+      </c>
+      <c r="AT206">
+        <v>699</v>
+      </c>
+      <c r="AU206" s="14">
+        <v>128</v>
+      </c>
+      <c r="AV206">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="207" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B207" s="13">
+        <v>44051</v>
+      </c>
+      <c r="C207">
+        <v>206</v>
+      </c>
+      <c r="E207" s="11">
+        <v>880563</v>
+      </c>
+      <c r="F207" s="12">
+        <v>310360</v>
+      </c>
+      <c r="G207" s="14">
+        <v>314362</v>
+      </c>
+      <c r="H207">
+        <v>250103</v>
+      </c>
+      <c r="I207" s="14">
+        <v>239622</v>
+      </c>
+      <c r="J207">
+        <v>216903</v>
+      </c>
+      <c r="K207" s="14">
+        <v>222408</v>
+      </c>
+      <c r="L207">
+        <v>82323</v>
+      </c>
+      <c r="M207" s="14">
+        <v>68738</v>
+      </c>
+      <c r="N207">
+        <v>81534</v>
+      </c>
+      <c r="O207" s="14">
+        <v>73401</v>
+      </c>
+      <c r="P207">
+        <v>57987</v>
+      </c>
+      <c r="Q207" s="14">
+        <v>52537</v>
+      </c>
+      <c r="R207">
+        <v>60623</v>
+      </c>
+      <c r="S207" s="14">
+        <v>51167</v>
+      </c>
+      <c r="T207">
+        <v>36451</v>
+      </c>
+      <c r="U207" s="14">
+        <v>26644</v>
+      </c>
+      <c r="V207">
+        <v>27863</v>
+      </c>
+      <c r="W207" s="14">
+        <v>27443</v>
+      </c>
+      <c r="X207">
+        <v>21919</v>
+      </c>
+      <c r="Y207" s="14">
+        <v>18235</v>
+      </c>
+      <c r="Z207">
+        <v>14442</v>
+      </c>
+      <c r="AA207" s="14">
+        <v>13343</v>
+      </c>
+      <c r="AB207">
+        <v>13687</v>
+      </c>
+      <c r="AC207" s="14">
+        <v>9599</v>
+      </c>
+      <c r="AD207">
+        <v>7568</v>
+      </c>
+      <c r="AE207" s="14">
+        <v>7169</v>
+      </c>
+      <c r="AF207">
+        <v>5543</v>
+      </c>
+      <c r="AG207" s="14">
+        <v>6275</v>
+      </c>
+      <c r="AH207">
+        <v>4653</v>
+      </c>
+      <c r="AI207" s="14">
+        <v>5421</v>
+      </c>
+      <c r="AJ207">
+        <v>3588</v>
+      </c>
+      <c r="AK207" s="14">
+        <v>2566</v>
+      </c>
+      <c r="AL207">
+        <v>2247</v>
+      </c>
+      <c r="AM207" s="14">
+        <v>2147</v>
+      </c>
+      <c r="AN207">
+        <v>2231</v>
+      </c>
+      <c r="AO207" s="14">
+        <v>1955</v>
+      </c>
+      <c r="AP207">
+        <v>1288</v>
+      </c>
+      <c r="AQ207" s="14">
+        <v>1233</v>
+      </c>
+      <c r="AR207">
+        <v>955</v>
+      </c>
+      <c r="AS207" s="14">
+        <v>1035</v>
+      </c>
+      <c r="AT207">
+        <v>699</v>
+      </c>
+      <c r="AU207" s="14">
+        <v>131</v>
+      </c>
+      <c r="AV207">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="208" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B208" s="13">
+        <v>44052</v>
+      </c>
+      <c r="C208">
+        <v>207</v>
+      </c>
+      <c r="E208" s="11">
+        <v>885718</v>
+      </c>
+      <c r="F208" s="12">
+        <v>311422</v>
+      </c>
+      <c r="G208" s="14">
+        <v>314362</v>
+      </c>
+      <c r="H208">
+        <v>250566</v>
+      </c>
+      <c r="I208" s="14">
+        <v>240804</v>
+      </c>
+      <c r="J208">
+        <v>217288</v>
+      </c>
+      <c r="K208" s="14">
+        <v>222402</v>
+      </c>
+      <c r="L208">
+        <v>82323</v>
+      </c>
+      <c r="M208" s="14">
+        <v>68850</v>
+      </c>
+      <c r="N208">
+        <v>82767</v>
+      </c>
+      <c r="O208" s="14">
+        <v>74152</v>
+      </c>
+      <c r="P208">
+        <v>58564</v>
+      </c>
+      <c r="Q208" s="14">
+        <v>52668</v>
+      </c>
+      <c r="R208">
+        <v>61768</v>
+      </c>
+      <c r="S208" s="14">
+        <v>51791</v>
+      </c>
+      <c r="T208">
+        <v>36603</v>
+      </c>
+      <c r="U208" s="14">
+        <v>26712</v>
+      </c>
+      <c r="V208">
+        <v>28099</v>
+      </c>
+      <c r="W208" s="14">
+        <v>27660</v>
+      </c>
+      <c r="X208">
+        <v>22033</v>
+      </c>
+      <c r="Y208" s="14">
+        <v>18353</v>
+      </c>
+      <c r="Z208">
+        <v>14442</v>
+      </c>
+      <c r="AA208" s="14">
+        <v>13396</v>
+      </c>
+      <c r="AB208">
+        <v>13687</v>
+      </c>
+      <c r="AC208" s="14">
+        <v>9638</v>
+      </c>
+      <c r="AD208">
+        <v>7584</v>
+      </c>
+      <c r="AE208" s="14">
+        <v>7205</v>
+      </c>
+      <c r="AF208">
+        <v>5604</v>
+      </c>
+      <c r="AG208" s="14">
+        <v>6411</v>
+      </c>
+      <c r="AH208">
+        <v>4696</v>
+      </c>
+      <c r="AI208" s="14">
+        <v>5623</v>
+      </c>
+      <c r="AJ208">
+        <v>3618</v>
+      </c>
+      <c r="AK208" s="14">
+        <v>2596</v>
+      </c>
+      <c r="AL208">
+        <v>2249</v>
+      </c>
+      <c r="AM208" s="14">
+        <v>2152</v>
+      </c>
+      <c r="AN208">
+        <v>2252</v>
+      </c>
+      <c r="AO208" s="14">
+        <v>1958</v>
+      </c>
+      <c r="AP208">
+        <v>1290</v>
+      </c>
+      <c r="AQ208" s="14">
+        <v>1242</v>
+      </c>
+      <c r="AR208">
+        <v>955</v>
+      </c>
+      <c r="AS208" s="14">
+        <v>1089</v>
+      </c>
+      <c r="AT208">
+        <v>699</v>
+      </c>
+      <c r="AU208" s="14">
+        <v>133</v>
+      </c>
+      <c r="AV208">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="209" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B209" s="13">
+        <v>44053</v>
+      </c>
+      <c r="C209">
+        <v>208</v>
+      </c>
+      <c r="E209" s="11">
+        <v>890799</v>
+      </c>
+      <c r="F209" s="12">
+        <v>312240</v>
+      </c>
+      <c r="G209" s="14">
+        <v>322980</v>
+      </c>
+      <c r="H209">
+        <v>250825</v>
+      </c>
+      <c r="I209" s="14">
+        <v>241997</v>
+      </c>
+      <c r="J209">
+        <v>218508</v>
+      </c>
+      <c r="K209" s="14">
+        <v>226384</v>
+      </c>
+      <c r="L209">
+        <v>82972</v>
+      </c>
+      <c r="M209" s="14">
+        <v>68947</v>
+      </c>
+      <c r="N209">
+        <v>83812</v>
+      </c>
+      <c r="O209" s="14">
+        <v>74620</v>
+      </c>
+      <c r="P209">
+        <v>59194</v>
+      </c>
+      <c r="Q209" s="14">
+        <v>52825</v>
+      </c>
+      <c r="R209">
+        <v>62547</v>
+      </c>
+      <c r="S209" s="14">
+        <v>52410</v>
+      </c>
+      <c r="T209">
+        <v>36708</v>
+      </c>
+      <c r="U209" s="14">
+        <v>26768</v>
+      </c>
+      <c r="V209">
+        <v>28262</v>
+      </c>
+      <c r="W209" s="14">
+        <v>27841</v>
+      </c>
+      <c r="X209">
+        <v>22106</v>
+      </c>
+      <c r="Y209" s="14">
+        <v>18494</v>
+      </c>
+      <c r="Z209">
+        <v>14815</v>
+      </c>
+      <c r="AA209" s="14">
+        <v>13512</v>
+      </c>
+      <c r="AB209">
+        <v>14498</v>
+      </c>
+      <c r="AC209" s="14">
+        <v>9684</v>
+      </c>
+      <c r="AD209">
+        <v>7601</v>
+      </c>
+      <c r="AE209" s="14">
+        <v>7216</v>
+      </c>
+      <c r="AF209">
+        <v>5649</v>
+      </c>
+      <c r="AG209" s="14">
+        <v>6536</v>
+      </c>
+      <c r="AH209">
+        <v>4731</v>
+      </c>
+      <c r="AI209" s="14">
+        <v>5749</v>
+      </c>
+      <c r="AJ209">
+        <v>3696</v>
+      </c>
+      <c r="AK209" s="14">
+        <v>2599</v>
+      </c>
+      <c r="AL209">
+        <v>2255</v>
+      </c>
+      <c r="AM209" s="14">
+        <v>2158</v>
+      </c>
+      <c r="AN209">
+        <v>2265</v>
+      </c>
+      <c r="AO209" s="14">
+        <v>1962</v>
+      </c>
+      <c r="AP209">
+        <v>1290</v>
+      </c>
+      <c r="AQ209" s="14">
+        <v>1252</v>
+      </c>
+      <c r="AR209">
+        <v>963</v>
+      </c>
+      <c r="AS209" s="14">
+        <v>1112</v>
+      </c>
+      <c r="AT209">
+        <v>699</v>
+      </c>
+      <c r="AU209" s="14">
+        <v>133</v>
+      </c>
+      <c r="AV209">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="210" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B210" s="13">
+        <v>44054</v>
+      </c>
+      <c r="C210">
+        <v>209</v>
+      </c>
+      <c r="E210" s="11">
+        <v>895691</v>
+      </c>
+      <c r="G210" s="14">
+        <v>326612</v>
+      </c>
+      <c r="H210">
+        <v>251237</v>
+      </c>
+      <c r="I210" s="14">
+        <v>243180</v>
+      </c>
+      <c r="J210">
+        <v>219540</v>
+      </c>
+      <c r="K210" s="14">
+        <v>226313</v>
+      </c>
+      <c r="L210">
+        <v>83126</v>
+      </c>
+      <c r="M210" s="14">
+        <v>69005</v>
+      </c>
+      <c r="N210">
+        <v>85023</v>
+      </c>
+      <c r="O210" s="14">
+        <v>75008</v>
+      </c>
+      <c r="P210">
+        <v>59424</v>
+      </c>
+      <c r="Q210" s="14">
+        <v>52945</v>
+      </c>
+      <c r="R210">
+        <v>63762</v>
+      </c>
+      <c r="S210" s="14">
+        <v>52961</v>
+      </c>
+      <c r="T210">
+        <v>36895</v>
+      </c>
+      <c r="U210" s="14">
+        <v>26801</v>
+      </c>
+      <c r="V210">
+        <v>28497</v>
+      </c>
+      <c r="W210" s="14">
+        <v>28223</v>
+      </c>
+      <c r="X210">
+        <v>22245</v>
+      </c>
+      <c r="Y210" s="14">
+        <v>18783</v>
+      </c>
+      <c r="Z210">
+        <v>14959</v>
+      </c>
+      <c r="AA210" s="14">
+        <v>13722</v>
+      </c>
+      <c r="AB210">
+        <v>14708</v>
+      </c>
+      <c r="AC210" s="14">
+        <v>9751</v>
+      </c>
+      <c r="AD210">
+        <v>7623</v>
+      </c>
+      <c r="AE210" s="14">
+        <v>7242</v>
+      </c>
+      <c r="AF210">
+        <v>5740</v>
+      </c>
+      <c r="AG210" s="14">
+        <v>6676</v>
+      </c>
+      <c r="AH210">
+        <v>4746</v>
+      </c>
+      <c r="AI210" s="14">
+        <v>5942</v>
+      </c>
+      <c r="AJ210">
+        <v>3748</v>
+      </c>
+      <c r="AK210" s="14">
+        <v>2615</v>
+      </c>
+      <c r="AL210">
+        <v>2272</v>
+      </c>
+      <c r="AM210" s="14">
+        <v>2167</v>
+      </c>
+      <c r="AN210">
+        <v>2283</v>
+      </c>
+      <c r="AO210" s="14">
+        <v>1968</v>
+      </c>
+      <c r="AP210">
+        <v>1293</v>
+      </c>
+      <c r="AQ210" s="14">
+        <v>1277</v>
+      </c>
+      <c r="AR210">
+        <v>963</v>
+      </c>
+      <c r="AS210" s="14">
+        <v>1141</v>
+      </c>
+      <c r="AT210">
+        <v>699</v>
+      </c>
+      <c r="AU210" s="14">
+        <v>138</v>
+      </c>
+      <c r="AV210">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="211" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B211" s="13">
+        <v>44055</v>
+      </c>
+      <c r="C211">
+        <v>210</v>
+      </c>
+      <c r="E211" s="11">
+        <v>900745</v>
+      </c>
+      <c r="F211" s="12">
+        <v>314401</v>
+      </c>
+      <c r="G211" s="14">
+        <v>329784</v>
+      </c>
+      <c r="H211">
+        <v>251713</v>
+      </c>
+      <c r="I211" s="14">
+        <v>244392</v>
+      </c>
+      <c r="J211">
+        <v>220859</v>
+      </c>
+      <c r="K211" s="14">
+        <v>230874</v>
+      </c>
+      <c r="L211">
+        <v>83455</v>
+      </c>
+      <c r="M211" s="14">
+        <v>69102</v>
+      </c>
+      <c r="N211">
+        <v>86504</v>
+      </c>
+      <c r="O211" s="14">
+        <v>75647</v>
+      </c>
+      <c r="P211">
+        <v>60627</v>
+      </c>
+      <c r="Q211" s="14">
+        <v>53223</v>
+      </c>
+      <c r="R211">
+        <v>65177</v>
+      </c>
+      <c r="S211" s="14">
+        <v>53676</v>
+      </c>
+      <c r="T211">
+        <v>37169</v>
+      </c>
+      <c r="U211" s="14">
+        <v>26838</v>
+      </c>
+      <c r="V211">
+        <v>28751</v>
+      </c>
+      <c r="W211" s="14">
+        <v>28697</v>
+      </c>
+      <c r="X211">
+        <v>22439</v>
+      </c>
+      <c r="Y211" s="14">
+        <v>19075</v>
+      </c>
+      <c r="Z211">
+        <v>15070</v>
+      </c>
+      <c r="AA211" s="14">
+        <v>13893</v>
+      </c>
+      <c r="AB211">
+        <v>14961</v>
+      </c>
+      <c r="AC211" s="14">
+        <v>9783</v>
+      </c>
+      <c r="AD211">
+        <v>7642</v>
+      </c>
+      <c r="AE211" s="14">
+        <v>7300</v>
+      </c>
+      <c r="AF211">
+        <v>5870</v>
+      </c>
+      <c r="AG211" s="14">
+        <v>6817</v>
+      </c>
+      <c r="AH211">
+        <v>4768</v>
+      </c>
+      <c r="AI211" s="14">
+        <v>6177</v>
+      </c>
+      <c r="AJ211">
+        <v>3813</v>
+      </c>
+      <c r="AK211" s="14">
+        <v>2690</v>
+      </c>
+      <c r="AL211">
+        <v>2303</v>
+      </c>
+      <c r="AM211" s="14">
+        <v>2174</v>
+      </c>
+      <c r="AN211">
+        <v>2309</v>
+      </c>
+      <c r="AO211" s="14">
+        <v>1972</v>
+      </c>
+      <c r="AP211">
+        <v>1303</v>
+      </c>
+      <c r="AQ211" s="14">
+        <v>1291</v>
+      </c>
+      <c r="AR211">
+        <v>977</v>
+      </c>
+      <c r="AS211" s="14">
+        <v>1190</v>
+      </c>
+      <c r="AT211">
+        <v>699</v>
+      </c>
+      <c r="AU211" s="14">
+        <v>141</v>
+      </c>
+      <c r="AV211">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B212" s="13">
+        <v>44056</v>
+      </c>
+      <c r="C212">
+        <v>211</v>
+      </c>
+      <c r="E212" s="11">
+        <v>905762</v>
+      </c>
+      <c r="G212" s="14">
+        <v>337334</v>
+      </c>
+      <c r="H212">
+        <v>252235</v>
+      </c>
+      <c r="I212" s="14">
+        <v>245635</v>
+      </c>
+      <c r="J212">
+        <v>222281</v>
+      </c>
+      <c r="K212" s="14">
+        <v>230778</v>
+      </c>
+      <c r="L212">
+        <v>83852</v>
+      </c>
+      <c r="M212" s="14">
+        <v>69203</v>
+      </c>
+      <c r="N212">
+        <v>88136</v>
+      </c>
+      <c r="O212" s="14">
+        <v>76191</v>
+      </c>
+      <c r="P212">
+        <v>61204</v>
+      </c>
+      <c r="Q212" s="14">
+        <v>53548</v>
+      </c>
+      <c r="R212">
+        <v>66631</v>
+      </c>
+      <c r="S212" s="14">
+        <v>54487</v>
+      </c>
+      <c r="T212">
+        <v>37403</v>
+      </c>
+      <c r="U212" s="14">
+        <v>26929</v>
+      </c>
+      <c r="V212">
+        <v>28998</v>
+      </c>
+      <c r="W212" s="14">
+        <v>29087</v>
+      </c>
+      <c r="X212">
+        <v>22594</v>
+      </c>
+      <c r="Y212" s="14">
+        <v>19401</v>
+      </c>
+      <c r="Z212">
+        <v>15214</v>
+      </c>
+      <c r="AA212" s="14">
+        <v>13893</v>
+      </c>
+      <c r="AB212">
+        <v>15184</v>
+      </c>
+      <c r="AC212" s="14">
+        <v>9851</v>
+      </c>
+      <c r="AD212">
+        <v>7683</v>
+      </c>
+      <c r="AE212" s="14">
+        <v>7368</v>
+      </c>
+      <c r="AF212">
+        <v>6050</v>
+      </c>
+      <c r="AG212" s="14">
+        <v>6971</v>
+      </c>
+      <c r="AH212">
+        <v>4813</v>
+      </c>
+      <c r="AI212" s="14">
+        <v>6381</v>
+      </c>
+      <c r="AJ212">
+        <v>3857</v>
+      </c>
+      <c r="AK212" s="14">
+        <v>2739</v>
+      </c>
+      <c r="AL212">
+        <v>2332</v>
+      </c>
+      <c r="AM212" s="14">
+        <v>2174</v>
+      </c>
+      <c r="AN212">
+        <v>2330</v>
+      </c>
+      <c r="AO212" s="14">
+        <v>1976</v>
+      </c>
+      <c r="AP212">
+        <v>1307</v>
+      </c>
+      <c r="AQ212" s="14">
+        <v>1305</v>
+      </c>
+      <c r="AR212">
+        <v>981</v>
+      </c>
+      <c r="AS212" s="14">
+        <v>1245</v>
+      </c>
+      <c r="AT212">
+        <v>699</v>
+      </c>
+      <c r="AU212" s="14">
+        <v>144</v>
+      </c>
+      <c r="AV212">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B213" s="13">
+        <v>44057</v>
+      </c>
+      <c r="C213">
+        <v>212</v>
+      </c>
+      <c r="E213" s="11">
+        <v>910778</v>
+      </c>
+      <c r="F213" s="12">
+        <v>314405</v>
+      </c>
+      <c r="G213" s="14">
+        <v>342813</v>
+      </c>
+      <c r="H213">
+        <v>252809</v>
+      </c>
+      <c r="I213" s="14">
+        <v>246861</v>
+      </c>
+      <c r="J213">
+        <v>223791</v>
+      </c>
+      <c r="K213" s="14">
+        <v>236114</v>
+      </c>
+      <c r="L213">
+        <v>84294</v>
+      </c>
+      <c r="M213" s="14">
+        <v>69308</v>
+      </c>
+      <c r="N213">
+        <v>89917</v>
+      </c>
+      <c r="O213" s="14">
+        <v>77113</v>
+      </c>
+      <c r="P213">
+        <v>61840</v>
+      </c>
+      <c r="Q213" s="14">
+        <v>53783</v>
+      </c>
+      <c r="R213">
+        <v>68046</v>
+      </c>
+      <c r="S213" s="14">
+        <v>55319</v>
+      </c>
+      <c r="T213">
+        <v>37671</v>
+      </c>
+      <c r="U213" s="14">
+        <v>26995</v>
+      </c>
+      <c r="V213">
+        <v>29233</v>
+      </c>
+      <c r="W213" s="14">
+        <v>29483</v>
+      </c>
+      <c r="X213">
+        <v>22876</v>
+      </c>
+      <c r="Y213" s="14">
+        <v>19693</v>
+      </c>
+      <c r="Z213">
+        <v>15379</v>
+      </c>
+      <c r="AA213" s="14">
+        <v>14243</v>
+      </c>
+      <c r="AB213">
+        <v>15535</v>
+      </c>
+      <c r="AC213" s="14">
+        <v>9908</v>
+      </c>
+      <c r="AD213">
+        <v>7700</v>
+      </c>
+      <c r="AE213" s="14">
+        <v>7405</v>
+      </c>
+      <c r="AF213">
+        <v>6258</v>
+      </c>
+      <c r="AG213" s="14">
+        <v>7117</v>
+      </c>
+      <c r="AH213">
+        <v>4853</v>
+      </c>
+      <c r="AI213" s="14">
+        <v>6632</v>
+      </c>
+      <c r="AJ213">
+        <v>3930</v>
+      </c>
+      <c r="AK213" s="14">
+        <v>2801</v>
+      </c>
+      <c r="AL213">
+        <v>2369</v>
+      </c>
+      <c r="AM213" s="14">
+        <v>2177</v>
+      </c>
+      <c r="AN213">
+        <v>2352</v>
+      </c>
+      <c r="AO213" s="14">
+        <v>1983</v>
+      </c>
+      <c r="AP213">
+        <v>1308</v>
+      </c>
+      <c r="AQ213" s="14">
+        <v>1318</v>
+      </c>
+      <c r="AR213">
+        <v>989</v>
+      </c>
+      <c r="AS213" s="14">
+        <v>1276</v>
+      </c>
+      <c r="AT213">
+        <v>699</v>
+      </c>
+      <c r="AU213" s="14">
+        <v>146</v>
+      </c>
+      <c r="AV213">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B214" s="13">
+        <v>44058</v>
+      </c>
+      <c r="C214">
+        <v>213</v>
+      </c>
+      <c r="E214" s="11">
+        <v>915808</v>
+      </c>
+      <c r="F214">
+        <v>317986</v>
+      </c>
+      <c r="G214" s="14">
+        <v>342813</v>
+      </c>
+      <c r="H214">
+        <v>253438</v>
+      </c>
+      <c r="I214" s="14">
+        <v>248117</v>
+      </c>
+      <c r="J214">
+        <v>224488</v>
+      </c>
+      <c r="K214" s="14">
+        <v>239345</v>
+      </c>
+      <c r="L214">
+        <v>84294</v>
+      </c>
+      <c r="M214" s="14">
+        <v>69308</v>
+      </c>
+      <c r="N214">
+        <v>91795</v>
+      </c>
+      <c r="O214" s="14">
+        <v>77869</v>
+      </c>
+      <c r="P214">
+        <v>62495</v>
+      </c>
+      <c r="Q214" s="14">
+        <v>53981</v>
+      </c>
+      <c r="R214">
+        <v>69374</v>
+      </c>
+      <c r="S214" s="14">
+        <v>56090</v>
+      </c>
+      <c r="T214">
+        <v>37924</v>
+      </c>
+      <c r="U214" s="14">
+        <v>27191</v>
+      </c>
+      <c r="V214">
+        <v>29471</v>
+      </c>
+      <c r="W214" s="14">
+        <v>29905</v>
+      </c>
+      <c r="X214">
+        <v>23179</v>
+      </c>
+      <c r="Y214" s="14">
+        <v>19891</v>
+      </c>
+      <c r="Z214">
+        <v>15483</v>
+      </c>
+      <c r="AA214" s="14">
+        <v>14333</v>
+      </c>
+      <c r="AB214">
+        <v>15801</v>
+      </c>
+      <c r="AC214" s="14">
+        <v>9965</v>
+      </c>
+      <c r="AD214">
+        <v>7720</v>
+      </c>
+      <c r="AE214" s="14">
+        <v>7439</v>
+      </c>
+      <c r="AF214">
+        <v>6420</v>
+      </c>
+      <c r="AG214" s="14">
+        <v>7260</v>
+      </c>
+      <c r="AH214">
+        <v>4877</v>
+      </c>
+      <c r="AI214" s="14">
+        <v>6858</v>
+      </c>
+      <c r="AJ214">
+        <v>3960</v>
+      </c>
+      <c r="AK214" s="14">
+        <v>2855</v>
+      </c>
+      <c r="AL214">
+        <v>2401</v>
+      </c>
+      <c r="AM214" s="14">
+        <v>2184</v>
+      </c>
+      <c r="AN214">
+        <v>2386</v>
+      </c>
+      <c r="AO214" s="14">
+        <v>1999</v>
+      </c>
+      <c r="AP214">
+        <v>1315</v>
+      </c>
+      <c r="AQ214" s="14">
+        <v>1332</v>
+      </c>
+      <c r="AR214">
+        <v>989</v>
+      </c>
+      <c r="AS214" s="14">
+        <v>1348</v>
+      </c>
+      <c r="AT214">
+        <v>699</v>
+      </c>
+      <c r="AU214" s="14">
+        <v>146</v>
+      </c>
+      <c r="AV214">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="215" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B215" s="13">
+        <v>44059</v>
+      </c>
+      <c r="C215">
+        <v>214</v>
+      </c>
+      <c r="E215" s="11">
+        <v>920719</v>
+      </c>
+      <c r="F215" s="12">
+        <v>319091</v>
+      </c>
+      <c r="G215" s="14">
+        <v>342813</v>
+      </c>
+      <c r="H215">
+        <v>253915</v>
+      </c>
+      <c r="I215" s="14">
+        <v>249309</v>
+      </c>
+      <c r="J215">
+        <v>225007</v>
+      </c>
+      <c r="K215" s="14">
+        <v>239306</v>
+      </c>
+      <c r="L215">
+        <v>84294</v>
+      </c>
+      <c r="M215" s="14">
+        <v>69516</v>
+      </c>
+      <c r="N215">
+        <v>93490</v>
+      </c>
+      <c r="O215" s="14">
+        <v>78323</v>
+      </c>
+      <c r="P215">
+        <v>63002</v>
+      </c>
+      <c r="Q215" s="14">
+        <v>54102</v>
+      </c>
+      <c r="R215">
+        <v>70461</v>
+      </c>
+      <c r="S215" s="14">
+        <v>56684</v>
+      </c>
+      <c r="T215">
+        <v>38124</v>
+      </c>
+      <c r="U215" s="14">
+        <v>27257</v>
+      </c>
+      <c r="V215">
+        <v>29682</v>
+      </c>
+      <c r="W215" s="14">
+        <v>30183</v>
+      </c>
+      <c r="X215">
+        <v>23370</v>
+      </c>
+      <c r="Y215" s="14">
+        <v>20012</v>
+      </c>
+      <c r="Z215">
+        <v>15617</v>
+      </c>
+      <c r="AA215" s="14">
+        <v>14365</v>
+      </c>
+      <c r="AB215">
+        <v>15801</v>
+      </c>
+      <c r="AC215" s="14">
+        <v>10005</v>
+      </c>
+      <c r="AD215">
+        <v>7731</v>
+      </c>
+      <c r="AE215" s="14">
+        <v>7458</v>
+      </c>
+      <c r="AF215">
+        <v>6571</v>
+      </c>
+      <c r="AG215" s="14">
+        <v>7380</v>
+      </c>
+      <c r="AH215">
+        <v>4916</v>
+      </c>
+      <c r="AI215" s="14">
+        <v>7075</v>
+      </c>
+      <c r="AJ215">
+        <v>4035</v>
+      </c>
+      <c r="AK215" s="14">
+        <v>2902</v>
+      </c>
+      <c r="AL215">
+        <v>2416</v>
+      </c>
+      <c r="AM215" s="14">
+        <v>2190</v>
+      </c>
+      <c r="AN215">
+        <v>2416</v>
+      </c>
+      <c r="AO215" s="14">
+        <v>2011</v>
+      </c>
+      <c r="AP215">
+        <v>1322</v>
+      </c>
+      <c r="AQ215" s="14">
+        <v>1339</v>
+      </c>
+      <c r="AR215">
+        <v>989</v>
+      </c>
+      <c r="AS215" s="14">
+        <v>1306</v>
+      </c>
+      <c r="AT215">
+        <v>699</v>
+      </c>
+      <c r="AU215" s="14">
+        <v>146</v>
+      </c>
+      <c r="AV215">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="216" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B216" s="13">
+        <v>44060</v>
+      </c>
+      <c r="C216">
+        <v>215</v>
+      </c>
+      <c r="E216" s="11">
+        <v>925558</v>
+      </c>
+      <c r="F216">
+        <v>319806</v>
+      </c>
+      <c r="G216" s="14">
+        <v>359082</v>
+      </c>
+      <c r="H216">
+        <v>254235</v>
+      </c>
+      <c r="I216" s="14">
+        <v>250542</v>
+      </c>
+      <c r="J216">
+        <v>226700</v>
+      </c>
+      <c r="K216" s="14">
+        <v>242650</v>
+      </c>
+      <c r="L216">
+        <v>85045</v>
+      </c>
+      <c r="M216" s="14">
+        <v>69589</v>
+      </c>
+      <c r="N216">
+        <v>95007</v>
+      </c>
+      <c r="O216" s="14">
+        <v>78534</v>
+      </c>
+      <c r="P216">
+        <v>63484</v>
+      </c>
+      <c r="Q216" s="14">
+        <v>54234</v>
+      </c>
+      <c r="R216">
+        <v>71194</v>
+      </c>
+      <c r="S216" s="14">
+        <v>57279</v>
+      </c>
+      <c r="T216">
+        <v>38252</v>
+      </c>
+      <c r="U216" s="14">
+        <v>27313</v>
+      </c>
+      <c r="V216">
+        <v>29782</v>
+      </c>
+      <c r="W216" s="14">
+        <v>30377</v>
+      </c>
+      <c r="X216">
+        <v>23534</v>
+      </c>
+      <c r="Y216" s="14">
+        <v>20202</v>
+      </c>
+      <c r="Z216">
+        <v>15740</v>
+      </c>
+      <c r="AA216" s="14">
+        <v>14500</v>
+      </c>
+      <c r="AB216">
+        <v>16111</v>
+      </c>
+      <c r="AC216" s="14">
+        <v>10060</v>
+      </c>
+      <c r="AD216">
+        <v>7752</v>
+      </c>
+      <c r="AE216" s="14">
+        <v>7469</v>
+      </c>
+      <c r="AF216">
+        <v>6656</v>
+      </c>
+      <c r="AG216" s="14">
+        <v>7499</v>
+      </c>
+      <c r="AH216">
+        <v>4946</v>
+      </c>
+      <c r="AI216" s="14">
+        <v>7222</v>
+      </c>
+      <c r="AJ216">
+        <v>4085</v>
+      </c>
+      <c r="AK216" s="14">
+        <v>2907</v>
+      </c>
+      <c r="AL216">
+        <v>2429</v>
+      </c>
+      <c r="AM216" s="14">
+        <v>2192</v>
+      </c>
+      <c r="AN216">
+        <v>2436</v>
+      </c>
+      <c r="AO216" s="14">
+        <v>2014</v>
+      </c>
+      <c r="AP216">
+        <v>1323</v>
+      </c>
+      <c r="AQ216" s="14">
+        <v>1351</v>
+      </c>
+      <c r="AR216">
+        <v>1005</v>
+      </c>
+      <c r="AS216" s="14">
+        <v>1375</v>
+      </c>
+      <c r="AT216">
+        <v>699</v>
+      </c>
+      <c r="AU216" s="14">
+        <v>148</v>
+      </c>
+      <c r="AV216">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B217" s="13">
+        <v>44061</v>
+      </c>
+      <c r="C217">
+        <v>216</v>
+      </c>
+      <c r="E217" s="11">
+        <v>930276</v>
+      </c>
+      <c r="F217" s="12">
+        <v>320895</v>
+      </c>
+      <c r="G217" s="14">
+        <v>364196</v>
+      </c>
+      <c r="H217">
+        <v>254636</v>
+      </c>
+      <c r="I217" s="14">
+        <v>251805</v>
+      </c>
+      <c r="J217">
+        <v>228120</v>
+      </c>
+      <c r="K217" s="14">
+        <v>242592</v>
+      </c>
+      <c r="L217">
+        <v>85219</v>
+      </c>
+      <c r="M217" s="14">
+        <v>69673</v>
+      </c>
+      <c r="N217">
+        <v>96653</v>
+      </c>
+      <c r="O217" s="14">
+        <v>78897</v>
+      </c>
+      <c r="P217">
+        <v>63973</v>
+      </c>
+      <c r="Q217" s="14">
+        <v>54448</v>
+      </c>
+      <c r="R217">
+        <v>72208</v>
+      </c>
+      <c r="S217" s="14">
+        <v>57876</v>
+      </c>
+      <c r="T217">
+        <v>38449</v>
+      </c>
+      <c r="U217" s="14">
+        <v>27499</v>
+      </c>
+      <c r="V217">
+        <v>29890</v>
+      </c>
+      <c r="W217" s="14">
+        <v>30789</v>
+      </c>
+      <c r="X217">
+        <v>23829</v>
+      </c>
+      <c r="Y217" s="14">
+        <v>20483</v>
+      </c>
+      <c r="Z217">
+        <v>15855</v>
+      </c>
+      <c r="AA217" s="14">
+        <v>14669</v>
+      </c>
+      <c r="AB217">
+        <v>16351</v>
+      </c>
+      <c r="AC217" s="14">
+        <v>10111</v>
+      </c>
+      <c r="AD217">
+        <v>7776</v>
+      </c>
+      <c r="AE217" s="14">
+        <v>7499</v>
+      </c>
+      <c r="AF217">
+        <v>6855</v>
+      </c>
+      <c r="AG217" s="14">
+        <v>7654</v>
+      </c>
+      <c r="AH217">
+        <v>4970</v>
+      </c>
+      <c r="AI217" s="14">
+        <v>7472</v>
+      </c>
+      <c r="AJ217">
+        <v>4132</v>
+      </c>
+      <c r="AK217" s="14">
+        <v>2922</v>
+      </c>
+      <c r="AL217">
+        <v>2456</v>
+      </c>
+      <c r="AM217" s="14">
+        <v>2200</v>
+      </c>
+      <c r="AN217">
+        <v>2474</v>
+      </c>
+      <c r="AO217" s="14">
+        <v>2027</v>
+      </c>
+      <c r="AP217">
+        <v>1323</v>
+      </c>
+      <c r="AQ217" s="14">
+        <v>1359</v>
+      </c>
+      <c r="AR217">
+        <v>1005</v>
+      </c>
+      <c r="AS217" s="14">
+        <v>1423</v>
+      </c>
+      <c r="AT217">
+        <v>702</v>
+      </c>
+      <c r="AU217" s="14">
+        <v>148</v>
+      </c>
+      <c r="AV217">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="218" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B218" s="13">
+        <v>44062</v>
+      </c>
+      <c r="C218">
+        <v>217</v>
+      </c>
+      <c r="E218" s="11">
+        <v>935066</v>
+      </c>
+      <c r="F218">
+        <v>321711</v>
+      </c>
+      <c r="G218" s="14">
+        <v>370867</v>
+      </c>
+      <c r="H218">
+        <v>255278</v>
+      </c>
+      <c r="I218" s="14">
+        <v>253108</v>
+      </c>
+      <c r="J218">
+        <v>229706</v>
+      </c>
+      <c r="K218" s="14">
+        <v>242538</v>
+      </c>
+      <c r="L218">
+        <v>85411</v>
+      </c>
+      <c r="M218" s="14">
+        <v>69801</v>
+      </c>
+      <c r="N218">
+        <v>98658</v>
+      </c>
+      <c r="O218" s="14">
+        <v>79479</v>
+      </c>
+      <c r="P218">
+        <v>64525</v>
+      </c>
+      <c r="Q218" s="14">
+        <v>54701</v>
+      </c>
+      <c r="R218">
+        <v>73617</v>
+      </c>
+      <c r="S218" s="14">
+        <v>58611</v>
+      </c>
+      <c r="T218">
+        <v>38760</v>
+      </c>
+      <c r="U218" s="14">
+        <v>27547</v>
+      </c>
+      <c r="V218">
+        <v>30048</v>
+      </c>
+      <c r="W218" s="14">
+        <v>31415</v>
+      </c>
+      <c r="X218">
+        <v>24084</v>
+      </c>
+      <c r="Y218" s="14">
+        <v>20798</v>
+      </c>
+      <c r="Z218">
+        <v>15940</v>
+      </c>
+      <c r="AA218" s="14">
+        <v>14820</v>
+      </c>
+      <c r="AB218">
+        <v>16691</v>
+      </c>
+      <c r="AC218" s="14">
+        <v>10162</v>
+      </c>
+      <c r="AD218">
+        <v>7805</v>
+      </c>
+      <c r="AE218" s="14">
+        <v>7566</v>
+      </c>
+      <c r="AF218">
+        <v>7074</v>
+      </c>
+      <c r="AG218" s="14">
+        <v>7812</v>
+      </c>
+      <c r="AH218">
+        <v>5002</v>
+      </c>
+      <c r="AI218" s="14">
+        <v>7684</v>
+      </c>
+      <c r="AJ218">
+        <v>4174</v>
+      </c>
+      <c r="AK218" s="14">
+        <v>3022</v>
+      </c>
+      <c r="AL218">
+        <v>2493</v>
+      </c>
+      <c r="AM218" s="14">
+        <v>2207</v>
+      </c>
+      <c r="AN218">
+        <v>2496</v>
+      </c>
+      <c r="AO218" s="14">
+        <v>2035</v>
+      </c>
+      <c r="AP218">
+        <v>1326</v>
+      </c>
+      <c r="AQ218" s="14">
+        <v>1385</v>
+      </c>
+      <c r="AR218">
+        <v>1024</v>
+      </c>
+      <c r="AS218" s="14">
+        <v>1470</v>
+      </c>
+      <c r="AT218">
+        <v>704</v>
+      </c>
+      <c r="AU218" s="14">
+        <v>148</v>
+      </c>
+      <c r="AV218">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B219" s="13">
+        <v>44063</v>
+      </c>
+      <c r="C219">
+        <v>218</v>
+      </c>
+      <c r="E219" s="11">
+        <v>939833</v>
+      </c>
+      <c r="F219" s="12">
+        <v>322893</v>
+      </c>
+      <c r="G219" s="14">
+        <v>377906</v>
+      </c>
+      <c r="H219">
+        <v>256118</v>
+      </c>
+      <c r="I219" s="14">
+        <v>254520</v>
+      </c>
+      <c r="J219">
+        <v>231292</v>
+      </c>
+      <c r="K219" s="14">
+        <v>242413</v>
+      </c>
+      <c r="L219">
+        <v>85810</v>
+      </c>
+      <c r="M219" s="14">
+        <v>69950</v>
+      </c>
+      <c r="N219">
+        <v>100810</v>
+      </c>
+      <c r="O219" s="14">
+        <v>80178</v>
+      </c>
+      <c r="P219">
+        <v>65054</v>
+      </c>
+      <c r="Q219" s="14">
+        <v>54992</v>
+      </c>
+      <c r="R219">
+        <v>74963</v>
+      </c>
+      <c r="S219" s="14">
+        <v>59378</v>
+      </c>
+      <c r="T219">
+        <v>39026</v>
+      </c>
+      <c r="U219" s="14">
+        <v>27676</v>
+      </c>
+      <c r="V219">
+        <v>30209</v>
+      </c>
+      <c r="W219" s="14">
+        <v>31937</v>
+      </c>
+      <c r="X219">
+        <v>24431</v>
+      </c>
+      <c r="Y219" s="14">
+        <v>21045</v>
+      </c>
+      <c r="Z219">
+        <v>16056</v>
+      </c>
+      <c r="AA219" s="14">
+        <v>14962</v>
+      </c>
+      <c r="AB219">
+        <v>17029</v>
+      </c>
+      <c r="AC219" s="14">
+        <v>10197</v>
+      </c>
+      <c r="AD219">
+        <v>7842</v>
+      </c>
+      <c r="AE219" s="14">
+        <v>7637</v>
+      </c>
+      <c r="AF219">
+        <v>7329</v>
+      </c>
+      <c r="AG219" s="14">
+        <v>7967</v>
+      </c>
+      <c r="AH219">
+        <v>5046</v>
+      </c>
+      <c r="AI219" s="14">
+        <v>7934</v>
+      </c>
+      <c r="AJ219">
+        <v>4229</v>
+      </c>
+      <c r="AK219" s="14">
+        <v>3102</v>
+      </c>
+      <c r="AL219">
+        <v>2536</v>
+      </c>
+      <c r="AM219" s="14">
+        <v>2227</v>
+      </c>
+      <c r="AN219">
+        <v>2528</v>
+      </c>
+      <c r="AO219" s="14">
+        <v>2040</v>
+      </c>
+      <c r="AP219">
+        <v>1327</v>
+      </c>
+      <c r="AQ219" s="14">
+        <v>1395</v>
+      </c>
+      <c r="AR219">
+        <v>1024</v>
+      </c>
+      <c r="AS219" s="14">
+        <v>1510</v>
+      </c>
+      <c r="AT219">
+        <v>704</v>
+      </c>
+      <c r="AU219" s="14">
+        <v>150</v>
+      </c>
+      <c r="AV219">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B220" s="13">
+        <v>44064</v>
+      </c>
+      <c r="C220">
+        <v>219</v>
+      </c>
+      <c r="E220" s="11">
+        <v>944671</v>
+      </c>
+      <c r="F220">
+        <v>323927</v>
+      </c>
+      <c r="G220" s="14">
+        <v>386054</v>
+      </c>
+      <c r="H220">
+        <v>257065</v>
+      </c>
+      <c r="I220" s="14">
+        <v>255723</v>
+      </c>
+      <c r="J220">
+        <v>233029</v>
+      </c>
+      <c r="K220" s="14">
+        <v>257333</v>
+      </c>
+      <c r="L220">
+        <v>86068</v>
+      </c>
+      <c r="M220" s="14">
+        <v>70111</v>
+      </c>
+      <c r="N220">
+        <v>102948</v>
+      </c>
+      <c r="O220" s="14">
+        <v>80894</v>
+      </c>
+      <c r="P220">
+        <v>65589</v>
+      </c>
+      <c r="Q220" s="14">
+        <v>55211</v>
+      </c>
+      <c r="R220">
+        <v>76355</v>
+      </c>
+      <c r="S220" s="14">
+        <v>60281</v>
+      </c>
+      <c r="T220">
+        <v>39332</v>
+      </c>
+      <c r="U220" s="14">
+        <v>27755</v>
+      </c>
+      <c r="V220">
+        <v>30378</v>
+      </c>
+      <c r="W220" s="14">
+        <v>32484</v>
+      </c>
+      <c r="X220">
+        <v>24762</v>
+      </c>
+      <c r="Y220" s="14">
+        <v>21551</v>
+      </c>
+      <c r="Z220">
+        <v>16127</v>
+      </c>
+      <c r="AA220" s="14">
+        <v>15131</v>
+      </c>
+      <c r="AB220">
+        <v>17396</v>
+      </c>
+      <c r="AC220" s="14">
+        <v>10275</v>
+      </c>
+      <c r="AD220">
+        <v>7871</v>
+      </c>
+      <c r="AE220" s="14">
+        <v>7704</v>
+      </c>
+      <c r="AF220">
+        <v>7594</v>
+      </c>
+      <c r="AG220" s="14">
+        <v>8119</v>
+      </c>
+      <c r="AH220">
+        <v>5098</v>
+      </c>
+      <c r="AI220" s="14">
+        <v>8138</v>
+      </c>
+      <c r="AJ220">
+        <v>4277</v>
+      </c>
+      <c r="AK220" s="14">
+        <v>3225</v>
+      </c>
+      <c r="AL220">
+        <v>2574</v>
+      </c>
+      <c r="AM220" s="14">
+        <v>2244</v>
+      </c>
+      <c r="AN220">
+        <v>2564</v>
+      </c>
+      <c r="AO220" s="14">
+        <v>2050</v>
+      </c>
+      <c r="AP220">
+        <v>1330</v>
+      </c>
+      <c r="AQ220" s="14">
+        <v>1406</v>
+      </c>
+      <c r="AR220">
+        <v>1045</v>
+      </c>
+      <c r="AS220" s="14">
+        <v>1546</v>
+      </c>
+      <c r="AT220">
+        <v>704</v>
+      </c>
+      <c r="AU220" s="14">
+        <v>154</v>
+      </c>
+      <c r="AV220">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="221" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B221" s="13">
+        <v>44065</v>
+      </c>
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="E221" s="11">
+        <v>949531</v>
+      </c>
+      <c r="F221" s="12">
+        <v>325215</v>
+      </c>
+      <c r="G221" s="14">
+        <v>386054</v>
+      </c>
+      <c r="H221">
+        <v>258136</v>
+      </c>
+      <c r="I221" s="14">
+        <v>257032</v>
+      </c>
+      <c r="J221">
+        <v>233861</v>
+      </c>
+      <c r="K221" s="14">
+        <v>260873</v>
+      </c>
+      <c r="L221">
+        <v>86068</v>
+      </c>
+      <c r="M221" s="14">
+        <v>70285</v>
+      </c>
+      <c r="N221">
+        <v>105337</v>
+      </c>
+      <c r="O221" s="14">
+        <v>81468</v>
+      </c>
+      <c r="P221">
+        <v>66097</v>
+      </c>
+      <c r="Q221" s="14">
+        <v>55452</v>
+      </c>
+      <c r="R221">
+        <v>77544</v>
+      </c>
+      <c r="S221" s="14">
+        <v>61181</v>
+      </c>
+      <c r="T221">
+        <v>39627</v>
+      </c>
+      <c r="U221" s="14">
+        <v>27908</v>
+      </c>
+      <c r="V221">
+        <v>30548</v>
+      </c>
+      <c r="W221" s="14">
+        <v>33072</v>
+      </c>
+      <c r="X221">
+        <v>25062</v>
+      </c>
+      <c r="Y221" s="14">
+        <v>21790</v>
+      </c>
+      <c r="Z221">
+        <v>16239</v>
+      </c>
+      <c r="AA221" s="14">
+        <v>15131</v>
+      </c>
+      <c r="AB221">
+        <v>17715</v>
+      </c>
+      <c r="AC221" s="14">
+        <v>10299</v>
+      </c>
+      <c r="AD221">
+        <v>7906</v>
+      </c>
+      <c r="AE221" s="14">
+        <v>7762</v>
+      </c>
+      <c r="AF221">
+        <v>7900</v>
+      </c>
+      <c r="AG221" s="14">
+        <v>8275</v>
+      </c>
+      <c r="AH221">
+        <v>5133</v>
+      </c>
+      <c r="AI221" s="14">
+        <v>8381</v>
+      </c>
+      <c r="AJ221">
+        <v>4313</v>
+      </c>
+      <c r="AK221" s="14">
+        <v>3316</v>
+      </c>
+      <c r="AL221">
+        <v>2617</v>
+      </c>
+      <c r="AM221" s="14">
+        <v>2265</v>
+      </c>
+      <c r="AN221">
+        <v>2594</v>
+      </c>
+      <c r="AO221" s="14">
+        <v>2058</v>
+      </c>
+      <c r="AP221">
+        <v>1333</v>
+      </c>
+      <c r="AQ221" s="14">
+        <v>1417</v>
+      </c>
+      <c r="AR221">
+        <v>1045</v>
+      </c>
+      <c r="AS221" s="14">
+        <v>1577</v>
+      </c>
+      <c r="AT221">
+        <v>704</v>
+      </c>
+      <c r="AU221" s="14">
+        <v>154</v>
+      </c>
+      <c r="AV221">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="222" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B222" s="13">
+        <v>44066</v>
+      </c>
+      <c r="C222">
+        <v>221</v>
+      </c>
+      <c r="E222" s="11">
+        <v>954328</v>
+      </c>
+      <c r="F222">
+        <v>326256</v>
+      </c>
+      <c r="G222" s="14">
+        <v>386054</v>
+      </c>
+      <c r="H222">
+        <v>259345</v>
+      </c>
+      <c r="I222" s="14">
+        <v>258249</v>
+      </c>
+      <c r="J222">
+        <v>234494</v>
+      </c>
+      <c r="K222" s="14">
+        <v>265550</v>
+      </c>
+      <c r="L222">
+        <v>86068</v>
+      </c>
+      <c r="M222" s="14">
+        <v>70468</v>
+      </c>
+      <c r="N222">
+        <v>107379</v>
+      </c>
+      <c r="O222" s="14">
+        <v>81936</v>
+      </c>
+      <c r="P222">
+        <v>66554</v>
+      </c>
+      <c r="Q222" s="14">
+        <v>55597</v>
+      </c>
+      <c r="R222">
+        <v>78505</v>
+      </c>
+      <c r="S222" s="14">
+        <v>61762</v>
+      </c>
+      <c r="T222">
+        <v>39903</v>
+      </c>
+      <c r="U222" s="14">
+        <v>27969</v>
+      </c>
+      <c r="V222">
+        <v>30657</v>
+      </c>
+      <c r="W222" s="14">
+        <v>33478</v>
+      </c>
+      <c r="X222">
+        <v>25253</v>
+      </c>
+      <c r="Y222" s="14">
+        <v>21923</v>
+      </c>
+      <c r="Z222">
+        <v>16317</v>
+      </c>
+      <c r="AA222" s="14">
+        <v>15287</v>
+      </c>
+      <c r="AB222">
+        <v>17715</v>
+      </c>
+      <c r="AC222" s="14">
+        <v>10323</v>
+      </c>
+      <c r="AD222">
+        <v>7920</v>
+      </c>
+      <c r="AE222" s="14">
+        <v>7775</v>
+      </c>
+      <c r="AF222">
+        <v>8175</v>
+      </c>
+      <c r="AG222" s="14">
+        <v>8427</v>
+      </c>
+      <c r="AH222">
+        <v>5155</v>
+      </c>
+      <c r="AI222" s="14">
+        <v>8664</v>
+      </c>
+      <c r="AJ222">
+        <v>4343</v>
+      </c>
+      <c r="AK222" s="14">
+        <v>3356</v>
+      </c>
+      <c r="AL222">
+        <v>2651</v>
+      </c>
+      <c r="AM222" s="14">
+        <v>2272</v>
+      </c>
+      <c r="AN222">
+        <v>2635</v>
+      </c>
+      <c r="AO222" s="14">
+        <v>2064</v>
+      </c>
+      <c r="AP222">
+        <v>1337</v>
+      </c>
+      <c r="AQ222" s="14">
+        <v>1421</v>
+      </c>
+      <c r="AR222">
+        <v>1045</v>
+      </c>
+      <c r="AS222" s="14">
+        <v>1612</v>
+      </c>
+      <c r="AT222">
+        <v>704</v>
+      </c>
+      <c r="AU222" s="14">
+        <v>154</v>
+      </c>
+      <c r="AV222">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="223" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B223" s="13">
+        <v>44067</v>
+      </c>
+      <c r="C223">
+        <v>222</v>
+      </c>
+      <c r="E223" s="11">
+        <v>959016</v>
+      </c>
+      <c r="F223" s="12">
+        <v>327230</v>
+      </c>
+      <c r="G223" s="14">
+        <v>405436</v>
+      </c>
+      <c r="H223">
+        <v>260298</v>
+      </c>
+      <c r="I223" s="14">
+        <v>259692</v>
+      </c>
+      <c r="J223">
+        <v>236122</v>
+      </c>
+      <c r="K223" s="14">
+        <v>267392</v>
+      </c>
+      <c r="L223">
+        <v>86721</v>
+      </c>
+      <c r="M223" s="14">
+        <v>70645</v>
+      </c>
+      <c r="N223">
+        <v>109234</v>
+      </c>
+      <c r="O223" s="14">
+        <v>82092</v>
+      </c>
+      <c r="P223">
+        <v>67128</v>
+      </c>
+      <c r="Q223" s="14">
+        <v>55720</v>
+      </c>
+      <c r="R223">
+        <v>79330</v>
+      </c>
+      <c r="S223" s="14">
+        <v>62310</v>
+      </c>
+      <c r="T223">
+        <v>40060</v>
+      </c>
+      <c r="U223" s="14">
+        <v>28116</v>
+      </c>
+      <c r="V223">
+        <v>30714</v>
+      </c>
+      <c r="W223" s="14">
+        <v>33828</v>
+      </c>
+      <c r="X223">
+        <v>25495</v>
+      </c>
+      <c r="Y223" s="14">
+        <v>22181</v>
+      </c>
+      <c r="Z223">
+        <v>16397</v>
+      </c>
+      <c r="AA223" s="14">
+        <v>15386</v>
+      </c>
+      <c r="AB223">
+        <v>18029</v>
+      </c>
+      <c r="AC223" s="14">
+        <v>10395</v>
+      </c>
+      <c r="AD223">
+        <v>7938</v>
+      </c>
+      <c r="AE223" s="14">
+        <v>7794</v>
+      </c>
+      <c r="AF223">
+        <v>8311</v>
+      </c>
+      <c r="AG223" s="14">
+        <v>8605</v>
+      </c>
+      <c r="AH223">
+        <v>5191</v>
+      </c>
+      <c r="AI223" s="14">
+        <v>8819</v>
+      </c>
+      <c r="AJ223">
+        <v>4378</v>
+      </c>
+      <c r="AK223" s="14">
+        <v>3424</v>
+      </c>
+      <c r="AL223">
+        <v>2665</v>
+      </c>
+      <c r="AM223" s="14">
+        <v>2275</v>
+      </c>
+      <c r="AN223">
+        <v>2673</v>
+      </c>
+      <c r="AO223" s="14">
+        <v>2073</v>
+      </c>
+      <c r="AP223">
+        <v>1337</v>
+      </c>
+      <c r="AQ223" s="14">
+        <v>1451</v>
+      </c>
+      <c r="AR223">
+        <v>1060</v>
+      </c>
+      <c r="AS223" s="14">
+        <v>1667</v>
+      </c>
+      <c r="AT223">
+        <v>704</v>
+      </c>
+      <c r="AU223" s="14">
+        <v>154</v>
+      </c>
+      <c r="AV223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="B224" s="13">
+        <v>44068</v>
+      </c>
+      <c r="C224">
+        <v>223</v>
+      </c>
+      <c r="E224" s="11">
+        <v>963655</v>
+      </c>
+      <c r="F224">
+        <v>328418</v>
+      </c>
+      <c r="G224" s="14">
+        <v>412553</v>
+      </c>
+      <c r="H224">
+        <v>261174</v>
+      </c>
+      <c r="I224" s="14">
+        <v>261194</v>
+      </c>
+      <c r="J224">
+        <v>237583</v>
+      </c>
+      <c r="K224" s="14">
+        <v>270455</v>
+      </c>
+      <c r="L224">
+        <v>86891</v>
+      </c>
+      <c r="M224" s="14">
+        <v>70727</v>
+      </c>
+      <c r="N224">
+        <v>110949</v>
+      </c>
+      <c r="O224" s="14">
+        <v>82447</v>
+      </c>
+      <c r="P224">
+        <v>67543</v>
+      </c>
+      <c r="Q224" s="14">
+        <v>55912</v>
+      </c>
+      <c r="R224">
+        <v>80390</v>
+      </c>
+      <c r="S224" s="14">
+        <v>63073</v>
+      </c>
+      <c r="T224">
+        <v>40262</v>
+      </c>
+      <c r="U224" s="14">
+        <v>28201</v>
+      </c>
+      <c r="V224">
+        <v>30820</v>
+      </c>
+      <c r="W224" s="14">
+        <v>34358</v>
+      </c>
+      <c r="X224">
+        <v>25706</v>
+      </c>
+      <c r="Y224" s="14">
+        <v>22548</v>
+      </c>
+      <c r="Z224">
+        <v>16480</v>
+      </c>
+      <c r="AA224" s="14">
+        <v>15589</v>
+      </c>
+      <c r="AB224">
+        <v>18326</v>
+      </c>
+      <c r="AC224" s="14">
+        <v>10454</v>
+      </c>
+      <c r="AD224">
+        <v>7981</v>
+      </c>
+      <c r="AE224" s="14">
+        <v>7838</v>
+      </c>
+      <c r="AF224">
+        <v>8530</v>
+      </c>
+      <c r="AG224" s="14">
+        <v>8759</v>
+      </c>
+      <c r="AH224">
+        <v>5215</v>
+      </c>
+      <c r="AI224" s="14">
+        <v>8987</v>
+      </c>
+      <c r="AJ224">
+        <v>4444</v>
+      </c>
+      <c r="AK224" s="14">
+        <v>3452</v>
+      </c>
+      <c r="AL224">
+        <v>2686</v>
+      </c>
+      <c r="AM224" s="14">
+        <v>2294</v>
+      </c>
+      <c r="AN224">
+        <v>2694</v>
+      </c>
+      <c r="AO224" s="14">
+        <v>2077</v>
+      </c>
+      <c r="AP224">
+        <v>1342</v>
+      </c>
+      <c r="AQ224" s="14">
+        <v>1474</v>
+      </c>
+      <c r="AR224">
+        <v>1060</v>
+      </c>
+      <c r="AS224" s="14">
+        <v>1705</v>
+      </c>
+      <c r="AT224">
+        <v>710</v>
+      </c>
+      <c r="AU224" s="14">
+        <v>154</v>
+      </c>
+      <c r="AV224">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="13">
+        <v>44069</v>
+      </c>
+      <c r="C225">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Cornestean/Europa.xlsx
+++ b/Database/Cornestean/Europa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Repository Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA7BE40-E185-40D0-86C1-64E55F498D43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAE8BE8-97C1-4258-9948-BE6D93D79349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>Evolutia cazurilor in Europa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Timp(zile)</t>
   </si>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE205" workbookViewId="0">
-      <selection activeCell="AQ217" sqref="AQ217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,146 +614,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
